--- a/dois_match.xlsx
+++ b/dois_match.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['Key Laboratory of Special Functional and Smart Polymer Materials of Ministry of Industry and Information Technology, School of Chemistry and Chemical Engineering, Northwestern Polytechnical University, Xi’an, Shaanxi 710072, China', 'College of Bioresources Chemical and Materials Engineering, National Demonstration Center for Experimental Light Chemistry Engineering Education, Shaanxi University of Science &amp; Technology, Xi’an 710021, China']</t>
+          <t>['College of Bioresources Chemical and Materials Engineering, National Demonstration Center for Experimental Light Chemistry Engineering Education, Shaanxi University of Science &amp; Technology, Xi’an 710021, China', 'Key Laboratory of Special Functional and Smart Polymer Materials of Ministry of Industry and Information Technology, School of Chemistry and Chemical Engineering, Northwestern Polytechnical University, Xi’an, Shaanxi 710072, China']</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['northwestern polytechnical universi', 'shaanxi universi science technology']</t>
+          <t>['shaanxi universi science technology', 'northwestern polytechnical universi']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['https://ror.org/01y0j0j86', 'https://ror.org/034t3zs45']</t>
+          <t>['https://ror.org/034t3zs45', 'https://ror.org/01y0j0j86']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>['College of Physics and Optoelectronic Engineering, Shenzhen University, Shenzhen518055, China', 'Shenzhen Polytechnic, Shenzhen518055, China', 'School of Mechanical Engineering and Automation, Harbin Institute of Technology, Shenzhen518055, China']</t>
+          <t>['School of Mechanical Engineering and Automation, Harbin Institute of Technology, Shenzhen518055, China', 'Shenzhen Polytechnic, Shenzhen518055, China', 'College of Physics and Optoelectronic Engineering, Shenzhen University, Shenzhen518055, China']</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['shenzhen universi', 'shenzhen polytechnic', 'harbin institute technology']</t>
+          <t>['harbin institute technology', 'shenzhen polytechnic', 'shenzhen universi']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['https://ror.org/01vy4gh70', 'https://ror.org/00d2w9g53', 'https://ror.org/01yqg2h08']</t>
+          <t>['https://ror.org/01yqg2h08', 'https://ror.org/00d2w9g53', 'https://ror.org/01vy4gh70']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[0.7905694150420948]</t>
+          <t>[0.79]</t>
         </is>
       </c>
     </row>
@@ -612,17 +612,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>['‡Immunology Service, Clinical Center, National Institutes of Health, Bethesda, MD 20892', '*Arthritis and Rheumatism Branch, National Institute of Arthritis and Musculoskeletal and Skin Diseases,', '†Developmental Endocrinology Branch, National Institute of Child Health and Human Development, and the']</t>
+          <t>['*Arthritis and Rheumatism Branch, National Institute of Arthritis and Musculoskeletal and Skin Diseases,', '†Developmental Endocrinology Branch, National Institute of Child Health and Human Development, and the', '‡Immunology Service, Clinical Center, National Institutes of Health, Bethesda, MD 20892']</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institute arthritis musculoskeletal skin diseases']</t>
+          <t>['national institute arthritis musculoskeletal skin diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['https://ror.org/01cwqze88', 'https://ror.org/006zn3t30']</t>
+          <t>['https://ror.org/006zn3t30', 'https://ror.org/01cwqze88']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -634,83 +634,83 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>['Anhui No. 2 Provincial People’s Hospital', 'School of Nursing, Anhui Medical University']</t>
+          <t>['Advance/CSG  Lisbon Portugal', 'ISEG Lisbon School of Economics and Management Universidade de Lisboa  Lisbon Portugal']</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['anhui medical universi']</t>
+          <t>['universi economics management']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['https://ror.org/03xb04968']</t>
+          <t>['https://ror.org/0397v9r66']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.6546536707079772]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['USDA, ARS, Eastern Regional Research Center, Wyndmoor, PA, USA', 'Department of Food Technology, Faculty of Science, Chulalongkorn University, Bangkok, Thailand']</t>
+          <t>['Anhui No. 2 Provincial People’s Hospital', 'School of Nursing, Anhui Medical University']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['eastern regional research center', 'chulalongkorn universi']</t>
+          <t>['anhui medical universi']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['https://ror.org/052v5pn20', 'https://ror.org/028wp3y58']</t>
+          <t>['https://ror.org/03xb04968']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>['Presidency University,Dept. of Computer Science and Engineering,Bangalore,India']</t>
+          <t>['USDA, ARS, Eastern Regional Research Center, Wyndmoor, PA, USA', 'Department of Food Technology, Faculty of Science, Chulalongkorn University, Bangkok, Thailand']</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['presidency universi']</t>
+          <t>['eastern regional research center', 'chulalongkorn universi']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['https://ror.org/04xgbph11']</t>
+          <t>['https://ror.org/052v5pn20', 'https://ror.org/028wp3y58']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>['Department of Chemistry, Texas A&amp;M University, P.O. Box 30012, College Station, Texas 77842-3012']</t>
+          <t>['Presidency University,Dept. of Computer Science and Engineering,Bangalore,India']</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['texas am universi']</t>
+          <t>['presidency universi']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['https://ror.org/01f5ytq51']</t>
+          <t>['https://ror.org/04xgbph11']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,17 +722,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['Bezmialem Vakif University, Faculty of Health Sciences, Division of Physiotherapy and Rehabilitation, Department of Cardiopulmonary Physiotherapy and Rehabilitation, Istanbul, Turkey.', 'Bezmialem Vakif University, Faculty of Health Sciences, Division of Physiotherapy and Rehabilitation, Istanbul, Turkey.', 'Marmara University, Faculty of Health Sciences, Division of Physiotherapy and Rehabilitation, Department of Cardiopulmonary Physiotherapy Rehabilitation, Istanbul, Turkey.']</t>
+          <t>['Department of Chemistry, Texas A&amp;M University, P.O. Box 30012, College Station, Texas 77842-3012']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['marmara universi']</t>
+          <t>['texas am universi']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['https://ror.org/02kswqa67']</t>
+          <t>['https://ror.org/01f5ytq51']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -744,39 +744,39 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>['Division of Forensic Medicine, Graduate School of Medicine, Tottori University, Yonago, Japan', 'Department of Anatomy, Graduate School of Medicine, Tottori University, Yonago, Japan']</t>
+          <t>['Bezmialem Vakif University, Faculty of Health Sciences, Division of Physiotherapy and Rehabilitation, Department of Cardiopulmonary Physiotherapy and Rehabilitation, Istanbul, Turkey.', 'Marmara University, Faculty of Health Sciences, Division of Physiotherapy and Rehabilitation, Department of Cardiopulmonary Physiotherapy Rehabilitation, Istanbul, Turkey.', 'Bezmialem Vakif University, Faculty of Health Sciences, Division of Physiotherapy and Rehabilitation, Istanbul, Turkey.']</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['tottori universi', 'tottori universi']</t>
+          <t>['bezmialem vakif universi', 'marmara universi', 'bezmialem vakif universi']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['https://ror.org/024yc3q36', 'https://ror.org/024yc3q36']</t>
+          <t>['https://ror.org/04z60tq39', 'https://ror.org/02kswqa67', 'https://ror.org/04z60tq39']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>['Digital Health Program Manager Ontario Health, Frankford, ON, Canada', 'Information Science Department, Georgian College, Barrie, ON, Canada', 'Ted Rogers School of Information Technology Management (TRSITM) Ted Rogers School of Management, Toronto Metropolitan University, Toronto, ON, Canada']</t>
+          <t>['Department of Anatomy, Graduate School of Medicine, Tottori University, Yonago, Japan', 'Division of Forensic Medicine, Graduate School of Medicine, Tottori University, Yonago, Japan']</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['georgian college', 'toronto metropolitan universi']</t>
+          <t>['tottori universi', 'tottori universi']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['https://ror.org/04s2jm085', 'https://ror.org/05g13zd79']</t>
+          <t>['https://ror.org/024yc3q36', 'https://ror.org/024yc3q36']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -788,17 +788,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>['State Key Laboratory of Fine Chemicals, Key Laboratory of Industrial Ecology and Environmental Engineering (MOE), School of Environmental Science and Technology, Dalian University of Technology, Dalian 116024, P. R. China', 'Department of Chemical Engineering, Curtin University, GPO Box U1987, Perth, Western Australia 6845, Australia']</t>
+          <t>['Information Science Department, Georgian College, Barrie, ON, Canada', 'Ted Rogers School of Information Technology Management (TRSITM) Ted Rogers School of Management, Toronto Metropolitan University, Toronto, ON, Canada', 'Digital Health Program Manager Ontario Health, Frankford, ON, Canada']</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['dalian universi technology', 'curtin universi']</t>
+          <t>['georgian college', 'toronto metropolitan universi']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['https://ror.org/023hj5876', 'https://ror.org/02n415q13']</t>
+          <t>['https://ror.org/04s2jm085', 'https://ror.org/05g13zd79']</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -810,127 +810,127 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>['Obstetrical Perinatal and Pediatric Epidemiology Research Team Institute of Health and Medical Research Centre of Research in Epidemiology and Statistics Université Paris Cité  Paris France', "Murdoch Children's Research Institute Royal Children's Hospital (Dept of Mental Health)  Parkville Victoria Australia", 'Turner Institute for Brain and Mental Health, School of Psychological Sciences Monash University  Clayton Victoria Australia']</t>
+          <t>['Department of Chemical Engineering, Curtin University, GPO Box U1987, Perth, Western Australia 6845, Australia', 'State Key Laboratory of Fine Chemicals, Key Laboratory of Industrial Ecology and Environmental Engineering (MOE), School of Environmental Science and Technology, Dalian University of Technology, Dalian 116024, P. R. China']</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['universi paris cite']</t>
+          <t>['curtin universi', 'dalian universi technology']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['https://ror.org/05f82e368']</t>
+          <t>['https://ror.org/02n415q13', 'https://ror.org/023hj5876']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[0.77]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>['Laboratory of Clinical Investigation, National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, Maryland', 'Tulane Regional Primate Research Center, Tulane University Health Sciences Center, Covington, Louisiana']</t>
+          <t>['Obstetrical Perinatal and Pediatric Epidemiology Research Team Institute of Health and Medical Research Centre of Research in Epidemiology and Statistics Université Paris Cité  Paris France', "Murdoch Children's Research Institute Royal Children's Hospital (Dept of Mental Health)  Parkville Victoria Australia", 'Turner Institute for Brain and Mental Health, School of Psychological Sciences Monash University  Clayton Victoria Australia']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
+          <t>['universi paris cite']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
+          <t>['https://ror.org/05f82e368']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.77]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>['University of Porto']</t>
+          <t>['Laboratory of Clinical Investigation, National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, Maryland', 'Tulane Regional Primate Research Center, Tulane University Health Sciences Center, Covington, Louisiana']</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['universi porto']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['https://ror.org/043pwc612']</t>
+          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>['Centre de Recherches Politiques de Sciences Po, Institut d’études politiques de Paris Paris France', 'PhD Student, Department of Political Science, The University of Chicago https://dx.doi.org/2462 Chicago USA']</t>
+          <t>['University of Porto']</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['institut detudes politiques paris', 'centre recherches politiques sciences po', 'universi chicago']</t>
+          <t>['universi porto']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['https://ror.org/05fe7ax82', 'https://ror.org/0266y7j75', 'https://ror.org/024mw5h28']</t>
+          <t>['https://ror.org/043pwc612']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[0.8838834764831843, 1, 0.8660254037844388]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>['Department of Otolaryngology–Head and Neck Surgery, University of California San Diego School of Medicine, La Jolla']</t>
+          <t>['PhD Student, Department of Political Science, The University of Chicago https://dx.doi.org/2462 Chicago USA', 'Centre de Recherches Politiques de Sciences Po, Institut d’études politiques de Paris Paris France']</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['universi california san diego']</t>
+          <t>['universi chicago', 'institut detudes politiques paris', 'centre recherches politiques sciences po']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['https://ror.org/0168r3w48']</t>
+          <t>['https://ror.org/024mw5h28', 'https://ror.org/05fe7ax82', 'https://ror.org/0266y7j75']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.7071067811865475, 0.8838834764831843, 1]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>['Second Mile Club, Kensington Health, Toronto, ON, Canada', 'Palliative Education and Care for the Homeless Program, Toronto, ON, Canada', 'Department of Family and Community Medicine, University of Toronto, Toronto, ON, Canada']</t>
+          <t>['Department of Otolaryngology–Head and Neck Surgery, University of California San Diego School of Medicine, La Jolla']</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['universi toronto']</t>
+          <t>['universi california san diego']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['https://ror.org/03dbr7087']</t>
+          <t>['https://ror.org/0168r3w48']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -942,39 +942,39 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>['College of Science, University of Shanghai for Science and Technology,Shanghai,China']</t>
+          <t>['Second Mile Club, Kensington Health, Toronto, ON, Canada', 'Department of Family and Community Medicine, University of Toronto, Toronto, ON, Canada', 'Palliative Education and Care for the Homeless Program, Toronto, ON, Canada']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['universi shanghai science technology']</t>
+          <t>['kensington health', 'universi toronto']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['https://ror.org/00ay9v204']</t>
+          <t>['https://ror.org/02qcscp23', 'https://ror.org/03dbr7087']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>['CONICET, Universidad Nacional de Avellaneda, Avellaneda, Argentina', 'CIECS, CONICET, Córdoba, Argentina']</t>
+          <t>['College of Science, University of Shanghai for Science and Technology,Shanghai,China']</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['universi nacional avellaneda']</t>
+          <t>['universi shanghai science technology']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['https://ror.org/05f05cy37']</t>
+          <t>['https://ror.org/00ay9v204']</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -986,17 +986,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>['Department of Medical Microbiology and Immunology, University of Ulm, FRG.']</t>
+          <t>['CIECS, CONICET, Córdoba, Argentina', 'CONICET, Universidad Nacional de Avellaneda, Avellaneda, Argentina']</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['universi ulm']</t>
+          <t>['universi nacional avellaneda']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['https://ror.org/032000t02']</t>
+          <t>['https://ror.org/05f05cy37']</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1008,17 +1008,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>['National University of Sciences &amp;#x0026; Technology,CEME,Department of Engineering Management,Rawalpindi,Pakistan']</t>
+          <t>['Department of Medical Microbiology and Immunology, University of Ulm, FRG.']</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['national universi sciences technology']</t>
+          <t>['universi ulm']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['https://ror.org/03w2j5y17']</t>
+          <t>['https://ror.org/032000t02']</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1030,105 +1030,105 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>['From the Departments of Physiology (M.A.W.B., G.J.T., R.S.R., M.G.A.o.E.) and Biophysics (D.W.S.), CARIM, Maastricht University, Maastricht, the Netherlands. Dr Broeders is now at the Department of Internal Medicine, Rijnland Hospital, Leiderdorp, the Netherlands, and Dr Tangelder is now at the Laboratory for Physiology, ICAR-VU, Vrije Universiteit Medical Center, Amsterdam, the Netherlands.']</t>
+          <t>['National University of Sciences &amp;#x0026; Technology,CEME,Department of Engineering Management,Rawalpindi,Pakistan']</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['maastricht universi', 'vrije universi medical center']</t>
+          <t>['national universi sciences technology']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['https://ror.org/02jz4aj89', 'https://ror.org/00q6h8f30']</t>
+          <t>['https://ror.org/03w2j5y17']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>['C.N.R., Istituto di Chimica dei Composti OrganoMetallici-ICCOM, Sezione di Bari, Dipartimento Farmaco-Chimico, Università di Bari, Via E.Orabona 4, I-70126 Bari, Italy']</t>
+          <t>['From the Departments of Physiology (M.A.W.B., G.J.T., R.S.R., M.G.A.o.E.) and Biophysics (D.W.S.), CARIM, Maastricht University, Maastricht, the Netherlands. Dr Broeders is now at the Department of Internal Medicine, Rijnland Hospital, Leiderdorp, the Netherlands, and Dr Tangelder is now at the Laboratory for Physiology, ICAR-VU, Vrije Universiteit Medical Center, Amsterdam, the Netherlands.']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['universi bari']</t>
+          <t>['maastricht universi', 'vrije universi medical center']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['https://ror.org/027ynra39']</t>
+          <t>['https://ror.org/02jz4aj89', 'https://ror.org/00q6h8f30']</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0.816496580927726]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>['Department of Medicine III University of Heidelberg Heidelberg Germany', 'Department of Infection, Immunity and Cardiovascular Disease University of Sheffield Sheffield United Kingdom', 'Department of Cardiology, Northwest Clinics Alkmaar, and Radboud University Medical Center Nijmegen The Netherlands', 'Department of Medical Sciences Uppsala University Uppsala Sweden', 'Department of Cardiology, Centre of Postgraduate Medical Education Grochowski Hospital Warsaw Poland', 'Uppsala Clinical Research Center Uppsala University Uppsala Sweden', 'Division of Cardiovascular Health and Diseases University of Cincinnati Heart, Lung &amp;amp; Vascular Institute Cincinnati OH']</t>
+          <t>['C.N.R., Istituto di Chimica dei Composti OrganoMetallici-ICCOM, Sezione di Bari, Dipartimento Farmaco-Chimico, Università di Bari, Via E.Orabona 4, I-70126 Bari, Italy']</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['heidelberg universi', 'universi sheffield', 'universi medical center', 'uppsala universi', 'uppsala universi']</t>
+          <t>['universi degli studi di bari aldo moro']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['https://ror.org/038t36y30', 'https://ror.org/05krs5044', 'https://ror.org/013v7fk41', 'https://ror.org/048a87296', 'https://ror.org/048a87296']</t>
+          <t>['https://ror.org/027ynra39']</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[0.7071067811865475, 0.71, 0.77, 0.7499999999999998, 0.7499999999999998]</t>
+          <t>[0.65]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>['Graduate School of Science and Engineering, Ritsumeikan University,Kusatsu,Shiga,Japan,525-8577']</t>
+          <t>['Department of Cardiology, Northwest Clinics Alkmaar, and Radboud University Medical Center Nijmegen The Netherlands', 'Division of Cardiovascular Health and Diseases University of Cincinnati Heart, Lung &amp;amp; Vascular Institute Cincinnati OH', 'Department of Medical Sciences Uppsala University Uppsala Sweden', 'Department of Medicine III University of Heidelberg Heidelberg Germany', 'Uppsala Clinical Research Center Uppsala University Uppsala Sweden', 'Department of Infection, Immunity and Cardiovascular Disease University of Sheffield Sheffield United Kingdom', 'Department of Cardiology, Centre of Postgraduate Medical Education Grochowski Hospital Warsaw Poland']</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['ritsumeikan universi']</t>
+          <t>['radboud universi nijmegen', 'uppsala universi', 'heidelberg universi', 'uppsala universi', 'universi sheffield']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['https://ror.org/0197nmd03']</t>
+          <t>['https://ror.org/016xsfp80', 'https://ror.org/048a87296', 'https://ror.org/038t36y30', 'https://ror.org/048a87296', 'https://ror.org/05krs5044']</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.77, 0.7499999999999998, 0.7071067811865475, 0.7499999999999998, 0.71]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>['From the Department of Cardiovascular Science and Medicine, Chiba University Graduate School of Medicine, Chiba, Japan (M.A., H.T., T.N., H.H., T.S., Y.M., I.K.); the Department of Cardiovascular Medicine, Graduate School of Medicine, University of Tokyo, Tokyo, Japan (H.U.); and the Department of Metabolic Diseases, Graduate School of Medicine, University of Tokyo, Tokyo, Japan (N.K., T.K.).']</t>
+          <t>['Graduate School of Science and Engineering, Ritsumeikan University,Kusatsu,Shiga,Japan,525-8577']</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['universi tokyo']</t>
+          <t>['ritsumeikan universi']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['https://ror.org/057zh3y96']</t>
+          <t>['https://ror.org/0197nmd03']</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1140,17 +1140,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>['Rutgers University,DIMACS,New Brunswick,NJ,USA', 'MIT,EECS &amp;#x0026; CSAIL,Cambridge,MA,USA']</t>
+          <t>['From the Department of Cardiovascular Science and Medicine, Chiba University Graduate School of Medicine, Chiba, Japan (M.A., H.T., T.N., H.H., T.S., Y.M., I.K.); the Department of Cardiovascular Medicine, Graduate School of Medicine, University of Tokyo, Tokyo, Japan (H.U.); and the Department of Metabolic Diseases, Graduate School of Medicine, University of Tokyo, Tokyo, Japan (N.K., T.K.).']</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['rutgers universi']</t>
+          <t>['universi tokyo']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['https://ror.org/05vt9qd57']</t>
+          <t>['https://ror.org/057zh3y96']</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1162,17 +1162,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>['Petrozavodsk State University;\r\nCity Clinical Hospital named after A. K. Eramishantsev']</t>
+          <t>['MIT,EECS &amp;#x0026; CSAIL,Cambridge,MA,USA', 'Rutgers University,DIMACS,New Brunswick,NJ,USA']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['petrozavodsk state universi']</t>
+          <t>['rutgers universi']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['https://ror.org/0176aa147']</t>
+          <t>['https://ror.org/05vt9qd57']</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1184,17 +1184,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>['Division of Pharmaceutics, Department of Pharmacology, Toxicology and Therapeutics School of Pharmacy, Showa University']</t>
+          <t>['Petrozavodsk State University;\r\nCity Clinical Hospital named after A. K. Eramishantsev']</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['showa universi']</t>
+          <t>['petrozavodsk state universi']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['https://ror.org/04mzk4q39']</t>
+          <t>['https://ror.org/0176aa147']</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1206,17 +1206,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>['Laboratory of Immunology, National Institute of Allergy and Infectious Diseases, Bethesda, MD 20892.']</t>
+          <t>['Division of Pharmaceutics, Department of Pharmacology, Toxicology and Therapeutics School of Pharmacy, Showa University']</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases']</t>
+          <t>['showa universi']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['https://ror.org/043z4tv69']</t>
+          <t>['https://ror.org/04mzk4q39']</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1228,61 +1228,61 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>['From the Institute of Experimental and Clinical Pharmacology and Toxicology (W.-H.Z., K.S., P.S., M.D., F.M., T.E.) and the Institute of Anatomy (W.L.N.), Friedrich-Alexander University of Erlangen-Nuremberg, Erlangen, Germany; the Institute of Pharmacology and Toxicology (J.F.H.), Dresden University of Technology, Dresden, Germany; and the Department of Experimental Cardiology (S.K.), Max-Planck-Institute, Bad Nauheim, Germany.']</t>
+          <t>['Laboratory of Immunology, National Institute of Allergy and Infectious Diseases, Bethesda, MD 20892.']</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['universi erlangennuremberg', 'universi technology']</t>
+          <t>['national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['https://ror.org/00f7hpc57', 'https://ror.org/03gbw6p94']</t>
+          <t>['https://ror.org/043z4tv69']</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[0.816496580927726, 0.816496580927726]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>['Gazi Üniversitesi', 'GAZİ ÜNİVERSİTESİ, GAZİ EĞİTİM FAKÜLTESİ']</t>
+          <t>['From the Institute of Experimental and Clinical Pharmacology and Toxicology (W.-H.Z., K.S., P.S., M.D., F.M., T.E.) and the Institute of Anatomy (W.L.N.), Friedrich-Alexander University of Erlangen-Nuremberg, Erlangen, Germany; the Institute of Pharmacology and Toxicology (J.F.H.), Dresden University of Technology, Dresden, Germany; and the Department of Experimental Cardiology (S.K.), Max-Planck-Institute, Bad Nauheim, Germany.']</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['gazi universi', 'gazi universi']</t>
+          <t>['universi technology', 'universi erlangen nuremberg']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['https://ror.org/054xkpr46', 'https://ror.org/054xkpr46']</t>
+          <t>['https://ror.org/03gbw6p94', 'https://ror.org/00f7hpc57']</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.82, 0.77]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>['School of Software, Henan Polytechnic University, Jiaozuo 454003, Henan, P. R. China', 'College of Safety Science and Engineering, Henan Polytechnic University, Jiaozuo 454003, Henan, P. R. China', 'State Key Laboratory Cultivation Base for Gas Geology and Gas Control, Jiaozuo 454003, Henan, P. R. China', 'State Collaborative Innovation Center of Coal Work Safety and Clean-Efficiency Utilization, Jiaozuo 454003, Henan, P. R. China']</t>
+          <t>['GAZİ ÜNİVERSİTESİ, GAZİ EĞİTİM FAKÜLTESİ', 'Gazi Üniversitesi']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['henan polytechnic universi', 'henan polytechnic universi']</t>
+          <t>['gazi universi', 'gazi universi']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['https://ror.org/05vr1c885', 'https://ror.org/05vr1c885']</t>
+          <t>['https://ror.org/054xkpr46', 'https://ror.org/054xkpr46']</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1294,303 +1294,303 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>['Robotics Institute, Carnegie Mellon University,Pittsburgh,PA,USA']</t>
+          <t>['State Key Laboratory Cultivation Base for Gas Geology and Gas Control, Jiaozuo 454003, Henan, P. R. China', 'State Collaborative Innovation Center of Coal Work Safety and Clean-Efficiency Utilization, Jiaozuo 454003, Henan, P. R. China', 'College of Safety Science and Engineering, Henan Polytechnic University, Jiaozuo 454003, Henan, P. R. China', 'School of Software, Henan Polytechnic University, Jiaozuo 454003, Henan, P. R. China']</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['carnegie mellon universi']</t>
+          <t>['henan polytechnic universi', 'henan polytechnic universi']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['https://ror.org/05x2bcf33']</t>
+          <t>['https://ror.org/05vr1c885', 'https://ror.org/05vr1c885']</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>['Zhejiang University,School of Software Technology,Ningbo,China', 'Nanjing University,State Key Laboratory for Novel Software Technology,Nanjing,China', 'Northeast Petroleum University,School of Petroleum Engineering,Heilongjiang,China']</t>
+          <t>['Robotics Institute, Carnegie Mellon University,Pittsburgh,PA,USA']</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['zhejiang universi', 'nanjing universi', 'northeast petroleum universi']</t>
+          <t>['carnegie mellon universi']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['https://ror.org/00a2xv884', 'https://ror.org/01rxvg760', 'https://ror.org/03net5943']</t>
+          <t>['https://ror.org/05x2bcf33']</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>['Lehrstuhl Effiziente Algorithmen, Institut für Informatik, Technische Universität München, D-80290 München, Germany', 'Dept. of Electrical Engineering and Computer Science, University of Illinois at Chicago (M/G 154), 851 S Morgan St Fl 11, Chicago IL 60607-7053, USA']</t>
+          <t>['Nanjing University,State Key Laboratory for Novel Software Technology,Nanjing,China', 'Zhejiang University,School of Software Technology,Ningbo,China', 'Northeast Petroleum University,School of Petroleum Engineering,Heilongjiang,China']</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['technische universi munchen', 'universi illinois chicago']</t>
+          <t>['nanjing universi', 'zhejiang universi', 'northeast petroleum universi']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['https://ror.org/02kkvpp62', 'https://ror.org/02mpq6x41']</t>
+          <t>['https://ror.org/01rxvg760', 'https://ror.org/00a2xv884', 'https://ror.org/03net5943']</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>['Hirosaki University']</t>
+          <t>['Lehrstuhl Effiziente Algorithmen, Institut für Informatik, Technische Universität München, D-80290 München, Germany', 'Dept. of Electrical Engineering and Computer Science, University of Illinois at Chicago (M/G 154), 851 S Morgan St Fl 11, Chicago IL 60607-7053, USA']</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['hirosaki universi']</t>
+          <t>['technische universi munchen', 'universi illinois chicago']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['https://ror.org/02syg0q74']</t>
+          <t>['https://ror.org/02kkvpp62', 'https://ror.org/02mpq6x41']</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>['Volgodonsk Engineering Technical Institute the branch of National Research Nuclear University «MEPhI»']</t>
+          <t>['Hirosaki University']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['seversky technological institute branch national research nuclear universi mephi']</t>
+          <t>['hirosaki universi']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['https://ror.org/00se1zw92']</t>
+          <t>['https://ror.org/02syg0q74']</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[0.75]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>['Azerbaijan State Oil and Industry University, Azerbaijan']</t>
+          <t>['Volgodonsk Engineering Technical Institute the branch of National Research Nuclear University «MEPhI»']</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['azerbaijan state universi oil industry']</t>
+          <t>['seversky technological institute branch national research nuclear universi mephi']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['https://ror.org/05mmnns11']</t>
+          <t>['https://ror.org/00se1zw92']</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[0.8944271909999159]</t>
+          <t>[0.75]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>['University of Chicago, Ben May Institute, IL 60637.']</t>
+          <t>['Azerbaijan State Oil and Industry University, Azerbaijan']</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['universi chicago']</t>
+          <t>['azerbaijan state oil industry universi']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['https://ror.org/024mw5h28']</t>
+          <t>['https://ror.org/05mmnns11']</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.89]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>['Materials Engineering Scientist, Saint Gobain Technical Fabrics, P.O. Box 728, St. Catharines ON, Canada L2R\u20096Y3.', 'Director, NSF Center for Advanced Cement-Based Materials, Northwestern Univ., 2145 Sheridan Rd., Evanston, IL\u200960208-4400.', 'Research Assistant, NSF Center for Advanced Cement-Based Materials, Northwestern Univ., 2145 Sheridan Rd., Evanston, IL\u200960208-4400.', 'Professor, Dept. of Industrial Engineering and Management Science, Northwestern Univ., 2145 Sheridan Rd., Evanston, IL\u200960208-4400.', 'Associate Director, National Institute of Statistical Sciences, P.O. Box 14006, Research Triangle Park, NC\u200927709-4006.']</t>
+          <t>['University of Chicago, Ben May Institute, IL 60637.']</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['northwestern universi', 'northwestern universi', 'northwestern universi', 'national institute statistical sciences']</t>
+          <t>['universi chicago']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['https://ror.org/000e0be47', 'https://ror.org/000e0be47', 'https://ror.org/000e0be47', 'https://ror.org/03kcsjh25']</t>
+          <t>['https://ror.org/024mw5h28']</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[0.71, 0.71, 0.71, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>['Department of Pathology, University of Pittsburgh, School of Medicine From the , Notre Dame, Indiana 46556 , and the , Pittsburgh, Pennsylvania 15213', 'Department of Microbiology, Lobund Laboratory, University of Notre Dame From the , Notre Dame, Indiana 46556 , and the , Pittsburgh, Pennsylvania 15213']</t>
+          <t>['Research Assistant, NSF Center for Advanced Cement-Based Materials, Northwestern Univ., 2145 Sheridan Rd., Evanston, IL\u200960208-4400.', 'Materials Engineering Scientist, Saint Gobain Technical Fabrics, P.O. Box 728, St. Catharines ON, Canada L2R\u20096Y3.', 'Associate Director, National Institute of Statistical Sciences, P.O. Box 14006, Research Triangle Park, NC\u200927709-4006.', 'Director, NSF Center for Advanced Cement-Based Materials, Northwestern Univ., 2145 Sheridan Rd., Evanston, IL\u200960208-4400.', 'Professor, Dept. of Industrial Engineering and Management Science, Northwestern Univ., 2145 Sheridan Rd., Evanston, IL\u200960208-4400.']</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['universi pittsburgh', 'universi notre dame']</t>
+          <t>['northwestern universi', 'national institute statistical sciences', 'research triangle park foundation', 'northwestern universi', 'northwestern universi']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['https://ror.org/01an3r305', 'https://ror.org/00mkhxb43']</t>
+          <t>['https://ror.org/000e0be47', 'https://ror.org/03kcsjh25', 'https://ror.org/03eqttr49', 'https://ror.org/000e0be47', 'https://ror.org/000e0be47']</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.71, 1, 0.8660254037844388, 0.71, 0.71]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>['RNIIIS', 'Institute of State and Law of the Russian Academy of Sciences']</t>
+          <t>['Department of Microbiology, Lobund Laboratory, University of Notre Dame From the , Notre Dame, Indiana 46556 , and the , Pittsburgh, Pennsylvania 15213', 'Department of Pathology, University of Pittsburgh, School of Medicine From the , Notre Dame, Indiana 46556 , and the , Pittsburgh, Pennsylvania 15213']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['federal state institution science institute state law russian academy sciences']</t>
+          <t>['universi notre dame', 'universi pittsburgh']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['https://ror.org/00g6nvj03']</t>
+          <t>['https://ror.org/00mkhxb43', 'https://ror.org/01an3r305']</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[0.8249579113843056]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>['Department of Organic and Inorganic Chemistry, Faculty of Sciences, Vrije Universiteit, De Boelelaan 1083, NL-1081 HV, Amsterdam, The Netherlands, and Bijvoet Center for Biomolecular Research, Department of Crystal and Structural Chemistry, Utrecht University, Padualaan 8, NL-3584 CH, Utrecht, The Netherlands']</t>
+          <t>['RNIIIS', 'Institute of State and Law of the Russian Academy of Sciences']</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['utrecht universi', 'vrije universi amsterdam']</t>
+          <t>['federal state institution science institute state law russian academy sciences']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['https://ror.org/04pp8hn57', 'https://ror.org/008xxew50']</t>
+          <t>['https://ror.org/00g6nvj03']</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[1, 0.82]</t>
+          <t>[0.8249579113843056]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>['Department of Clinical Immunology, University Hospital, Copenhagen, Denmark.']</t>
+          <t>['Department of Organic and Inorganic Chemistry, Faculty of Sciences, Vrije Universiteit, De Boelelaan 1083, NL-1081 HV, Amsterdam, The Netherlands, and Bijvoet Center for Biomolecular Research, Department of Crystal and Structural Chemistry, Utrecht University, Padualaan 8, NL-3584 CH, Utrecht, The Netherlands']</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['copenhagen universi hospital']</t>
+          <t>['utrecht universi', 'vrije universi amsterdam']</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['https://ror.org/05bpbnx46']</t>
+          <t>['https://ror.org/008xxew50', 'https://ror.org/04pp8hn57']</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[0.82]</t>
+          <t>[1, 0.82]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>['Apache Point Observatory, Sunspot, New Mexico, United States', 'University of Washington, Astronomy Department, Seattle, Washington, United States']</t>
+          <t>['Department of Clinical Immunology, University Hospital, Copenhagen, Denmark.']</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['universi washington']</t>
+          <t>['copenhagen universi hospital']</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['https://ror.org/00cvxb145']</t>
+          <t>['https://ror.org/05bpbnx46']</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.82]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>['Botanisches Institut, Universität zu Köln, Lehrstuhl I, Gyrhofstrasse 15, D-50931 Cologne, Germany']</t>
+          <t>['University of Washington, Astronomy Department, Seattle, Washington, United States', 'Apache Point Observatory, Sunspot, New Mexico, United States']</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['universi zu koln']</t>
+          <t>['universi washington']</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['https://ror.org/00rcxh774']</t>
+          <t>['https://ror.org/00cvxb145']</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1602,83 +1602,83 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>['United States Department of Agriculture, ARS, Regional Poultry Research Laboratory From the , 550 First Avenue, New York, New York 10016 and The , East Lansing, Michigan 48823', 'Department of Pathology, New York University School of Medicine From the , 550 First Avenue, New York, New York 10016 and The , East Lansing, Michigan 48823']</t>
+          <t>['Botanisches Institut, Universität zu Köln, Lehrstuhl I, Gyrhofstrasse 15, D-50931 Cologne, Germany']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['regional research laboratory', 'new york universi']</t>
+          <t>['universi zu koln']</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['https://ror.org/02x351n42', 'https://ror.org/0190ak572']</t>
+          <t>['https://ror.org/00rcxh774']</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0.8660254037844388, 0.77]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>['Beijing Chao-yang Hospital Capital Medical University;Beijing Center for Clinical Laboratories', 'Jilin Provincial Hospital for Tuberculosis', 'Beijing Jin-feng-yi-tong Technology Co.,Ltd', 'National Institute of Metrology China', 'Comprehensive Disease Control and Prevention Center of Inner Mongolia Autonomous Region', 'Beijing Chao-Yang Hospital Capital Medical University: Beijing Chaoyang Hospital', 'Beijing Heping Li Hospital', 'Zhihui Big Data Research Institute of Inner Mongolia', 'Beijing Chao-yang Hospital Capital Medical University:Beijing Center for Clinical Laboratories', 'Beijing Jishuitan Hospital', 'Changchun Infectious Disease Hospital']</t>
+          <t>['United States Department of Agriculture, ARS, Regional Poultry Research Laboratory From the , 550 First Avenue, New York, New York 10016 and The , East Lansing, Michigan 48823', 'Department of Pathology, New York University School of Medicine From the , 550 First Avenue, New York, New York 10016 and The , East Lansing, Michigan 48823']</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['beijing luhe hospital affiliated to capital medical universi', 'inner mongolia autonomous region comprehensive disease prevention control center', 'beijing jishuitan hospital']</t>
+          <t>['regional research laboratory', 'new york universi']</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['https://ror.org/01zyn4z03', 'https://ror.org/02xy6bg05', 'https://ror.org/035t17984']</t>
+          <t>['https://ror.org/02x351n42', 'https://ror.org/0190ak572']</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[0.71, 1.0, 1]</t>
+          <t>[0.8660254037844388, 0.77]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>['Department of Chemical Immunology, The Weizmann Institute of Science From the , Rehovot, Israel']</t>
+          <t>['Zhihui Big Data Research Institute of Inner Mongolia', 'Beijing Heping Li Hospital', 'Beijing Chao-Yang Hospital Capital Medical University: Beijing Chaoyang Hospital', 'National Institute of Metrology China', 'Beijing Jishuitan Hospital', 'Changchun Infectious Disease Hospital', 'Comprehensive Disease Control and Prevention Center of Inner Mongolia Autonomous Region', 'Beijing Chao-yang Hospital Capital Medical University;Beijing Center for Clinical Laboratories', 'Beijing Jin-feng-yi-tong Technology Co.,Ltd', 'Jilin Provincial Hospital for Tuberculosis', 'Beijing Chao-yang Hospital Capital Medical University:Beijing Center for Clinical Laboratories']</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['weizmann institute science']</t>
+          <t>['beijing jishuitan hospital', 'inner mongolia autonomous region comprehensive disease prevention control center', 'beijing luhe hospital affiliated to capital medical universi']</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['https://ror.org/0316ej306']</t>
+          <t>['https://ror.org/035t17984', 'https://ror.org/02xy6bg05', 'https://ror.org/01zyn4z03']</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1.0, 0.71]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>['College of Criminal Justice, Naif Arab University for Security Sciences, Saudi Arabia']</t>
+          <t>['Department of Chemical Immunology, The Weizmann Institute of Science From the , Rehovot, Israel']</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['naif arab universi security sciences']</t>
+          <t>['weizmann institute science']</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['https://ror.org/049c46160']</t>
+          <t>['https://ror.org/0316ej306']</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1690,17 +1690,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>['University of South-Eastern Norway,Department of Maritime Operations,Horten,Norway']</t>
+          <t>['College of Criminal Justice, Naif Arab University for Security Sciences, Saudi Arabia']</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['universi southeastern norway']</t>
+          <t>['naif arab universi security sciences']</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['https://ror.org/05ecg5h20']</t>
+          <t>['https://ror.org/049c46160']</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1712,127 +1712,127 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>['Department of Population Health Sciences, Weill Cornell Medicine, New York, New York', 'Department of Obstetrics &amp; Gynecology, New York University Grossman School of Medicine, New York', 'HealthPartners Institute, Minneapolis, Minnesota']</t>
+          <t>['University of South-Eastern Norway,Department of Maritime Operations,Horten,Norway']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['new york universi']</t>
+          <t>['universi south eastern norway']</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['https://ror.org/0190ak572']</t>
+          <t>['https://ror.org/05ecg5h20']</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[0.71]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>["Neurobiology Laboratory, Stazione Zoologica'A. Dohrn', Villa Comunale, 80121 Naples, Italy", 'Institute for Enzyme Research, Tokushima University, Tokushima 770‐8503, Japan', "Centre for Neuroscience Research, GKT School of Biomedical Sciences, King's College London, London SE1 1UL, UK", 'Laboratory of Biology, Graduate School of Commerce and Management, Hitotsubashi University, Tokyo 186‐8601, Japan']</t>
+          <t>['HealthPartners Institute, Minneapolis, Minnesota', 'Department of Population Health Sciences, Weill Cornell Medicine, New York, New York', 'Department of Obstetrics &amp; Gynecology, New York University Grossman School of Medicine, New York']</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['tokushima universi', 'kings college london', 'hitotsubashi universi']</t>
+          <t>['department health sciences', 'new york universi']</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['https://ror.org/044vy1d05', 'https://ror.org/0220mzb33', 'https://ror.org/04jqj7p05']</t>
+          <t>['https://ror.org/049c9xv68', 'https://ror.org/0190ak572']</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[0.8660254037844388, 0.71]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>['Freie Universität Berlin']</t>
+          <t>['Laboratory of Biology, Graduate School of Commerce and Management, Hitotsubashi University, Tokyo 186‐8601, Japan', "Centre for Neuroscience Research, GKT School of Biomedical Sciences, King's College London, London SE1 1UL, UK", 'Institute for Enzyme Research, Tokushima University, Tokushima 770‐8503, Japan', "Neurobiology Laboratory, Stazione Zoologica'A. Dohrn', Villa Comunale, 80121 Naples, Italy"]</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['freie universi berlin']</t>
+          <t>['hitotsubashi universi', 'kings college london', 'tokushima universi']</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['https://ror.org/046ak2485']</t>
+          <t>['https://ror.org/04jqj7p05', 'https://ror.org/0220mzb33', 'https://ror.org/044vy1d05']</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>['School of Computer Science, Qufu Normal University, Rizhao 276826, China', 'Department of Electrical Engineering and Information Technology, Shandong University of Science and Technology, Jinan 250031, China']</t>
+          <t>['Freie Universität Berlin']</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['qufu normal universi', 'shandong universi science technology']</t>
+          <t>['freie universi berlin']</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['https://ror.org/03ceheh96', 'https://ror.org/04gtjhw98']</t>
+          <t>['https://ror.org/046ak2485']</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>['Department of Pathology, University of Michigan, Ann Arbor 48109.']</t>
+          <t>['School of Computer Science, Qufu Normal University, Rizhao 276826, China', 'Department of Electrical Engineering and Information Technology, Shandong University of Science and Technology, Jinan 250031, China']</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['universi michigan']</t>
+          <t>['qufu normal universi', 'shandong universi science technology']</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['https://ror.org/00jmfr291']</t>
+          <t>['https://ror.org/03ceheh96', 'https://ror.org/04gtjhw98']</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>['Tokushima University']</t>
+          <t>['Department of Pathology, University of Michigan, Ann Arbor 48109.']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['tokushima universi']</t>
+          <t>['universi michigan']</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['https://ror.org/044vy1d05']</t>
+          <t>['https://ror.org/00jmfr291']</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1844,17 +1844,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>['Department de Bioquimica e Imunologia, Universidade Federal de Minas Gerais, Brazil.']</t>
+          <t>['Tokushima University']</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['universi federal minas gerais']</t>
+          <t>['tokushima universi']</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['https://ror.org/0176yjw32']</t>
+          <t>['https://ror.org/044vy1d05']</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1866,17 +1866,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>['Department of Microbiology, University of Tennessee, Knoxville 37996-0845.']</t>
+          <t>['Department de Bioquimica e Imunologia, Universidade Federal de Minas Gerais, Brazil.']</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['universi tennessee']</t>
+          <t>['universi federal minas gerais']</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['https://ror.org/020f3ap87']</t>
+          <t>['https://ror.org/0176yjw32']</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1888,17 +1888,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>['Department of Medicine, The University of Chicago, Pritzker School of Medicine , and the , 1 \u2008 Chicago, Illinois 60637', 'Argonne Cancer Research Hospital , and the , 1 \u2008 Chicago, Illinois 60637']</t>
+          <t>['Department of Microbiology, University of Tennessee, Knoxville 37996-0845.']</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['universi chicago']</t>
+          <t>['universi tennessee']</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['https://ror.org/024mw5h28']</t>
+          <t>['https://ror.org/00xzqjh13']</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1910,215 +1910,215 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>['Moscow Automobile and Road Construction State Technical University (MADI)', 'Scientific Center of Complex Transport Problems of Ministry of Transport of Russian Federation (NTsKTP of the Ministry of Transport of the Russian Federation)']</t>
+          <t>['Department of Medicine, The University of Chicago, Pritzker School of Medicine , and the , 1 \u2008 Chicago, Illinois 60637', 'Argonne Cancer Research Hospital , and the , 1 \u2008 Chicago, Illinois 60637']</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['moscow automobile road construction state technical universi']</t>
+          <t>['universi chicago']</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['https://ror.org/0257qw677']</t>
+          <t>['https://ror.org/024mw5h28']</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[0.7559289460184544]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>['Manipal Institute of Technology,Department of ECE &amp;#x0026; Centre of Excellence in Avionics &amp;#x0026; Navigation,Udupi,India', 'Manipal Institute of Technology,Department of Aeronautical &amp;#x0026; Automobile Engg.,Udupi,India', 'Manipal Institute of Technology,Department of ECE,Udupi,India', 'Manipal University,Department of Information Technology,Jaipur']</t>
+          <t>['Moscow Automobile and Road Construction State Technical University (MADI)', 'Scientific Center of Complex Transport Problems of Ministry of Transport of Russian Federation (NTsKTP of the Ministry of Transport of the Russian Federation)']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['department electronics information technology', 'manipal universi']</t>
+          <t>['moscow automobile road construction state technical universi']</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['https://ror.org/02z31cn83', 'https://ror.org/02xzytt36']</t>
+          <t>['https://ror.org/0257qw677']</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[0.8660254037844388, 1]</t>
+          <t>[0.7559289460184544]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>['College of Artificial Intelligence, Nankai University,Tianjin,China', 'School of Vehicle and Mobility, Tsinghua University,Beijing,China']</t>
+          <t>['Manipal Institute of Technology,Department of ECE,Udupi,India', 'Manipal Institute of Technology,Department of ECE &amp;#x0026; Centre of Excellence in Avionics &amp;#x0026; Navigation,Udupi,India', 'Manipal Institute of Technology,Department of Aeronautical &amp;#x0026; Automobile Engg.,Udupi,India', 'Manipal University,Department of Information Technology,Jaipur']</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['nankai universi', 'tsinghua universi']</t>
+          <t>['department electronics information technology', 'manipal universi']</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['https://ror.org/01y1kjr75', 'https://ror.org/03cve4549']</t>
+          <t>['https://ror.org/02z31cn83', 'https://ror.org/02xzytt36']</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.8660254037844388, 1]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>['Center for Biomedical Imaging Technology, University of Connecticut Health Center, Farmington, Connecticut 06117;']</t>
+          <t>['College of Artificial Intelligence, Nankai University,Tianjin,China', 'School of Vehicle and Mobility, Tsinghua University,Beijing,China']</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['universi connecticut health center']</t>
+          <t>['nankai universi', 'tsinghua universi']</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['https://ror.org/02kzs4y22']</t>
+          <t>['https://ror.org/01y1kjr75', 'https://ror.org/03cve4549']</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>['Department of Internal Medicine, University of Iowa College of Medicine, Iowa City 52242, USA.']</t>
+          <t>['Center for Biomedical Imaging Technology, University of Connecticut Health Center, Farmington, Connecticut 06117;']</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['universi iowa']</t>
+          <t>['universi connecticut health center']</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['https://ror.org/036jqmy94']</t>
+          <t>['https://ror.org/02kzs4y22']</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>['Human Research and Ethics Committee, National Institute of Integrative Medicine, Gisborne, Australia']</t>
+          <t>['Department of Internal Medicine, University of Iowa College of Medicine, Iowa City 52242, USA.']</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['national institute integrative medicine']</t>
+          <t>['universi iowa']</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['https://ror.org/00zxymv65']</t>
+          <t>['https://ror.org/036jqmy94']</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>['Dagestan State University', 'Chechen State University Named after A. A. Kadyrova']</t>
+          <t>['Human Research and Ethics Committee, National Institute of Integrative Medicine, Gisborne, Australia']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['dagestan state universi', 'chechen state universi']</t>
+          <t>['national institute integrative medicine']</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['https://ror.org/01vw69t89', 'https://ror.org/004ze6w33']</t>
+          <t>['https://ror.org/00zxymv65']</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[1, 0.7071067811865477]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>['Laboratory of Microbial Immunity, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland']</t>
+          <t>['Chechen State University Named after A. A. Kadyrova', 'Dagestan State University']</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
+          <t>['chechen state universi', 'dagestan state universi']</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
+          <t>['https://ror.org/004ze6w33', 'https://ror.org/01vw69t89']</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.7745966692414834, 1]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>['2Pathology, University of Iowa, Iowa City, IA', '1Immunology, Mayo Clinic, Rochester, MN', '3Neurology, Henry Ford Hlth. Sys., Detroit, MI', '4Health Science Research, Mayo Clinic, Rochester, MN']</t>
+          <t>['Laboratory of Microbial Immunity, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland']</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['universi iowa']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['https://ror.org/036jqmy94']</t>
+          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>['Tianjin University,China', 'Carleton University,Canada', 'Beijing University of Technology,China']</t>
+          <t>['2Pathology, University of Iowa, Iowa City, IA', '4Health Science Research, Mayo Clinic, Rochester, MN', '3Neurology, Henry Ford Hlth. Sys., Detroit, MI', '1Immunology, Mayo Clinic, Rochester, MN']</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['tianjin universi', 'carleton universi', 'beijing universi technology']</t>
+          <t>['universi iowa', 'mayo clinic', 'mayo clinic']</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['https://ror.org/012tb2g32', 'https://ror.org/02qtvee93', 'https://ror.org/037b1pp87']</t>
+          <t>['https://ror.org/036jqmy94', 'https://ror.org/02qp3tb03', 'https://ror.org/02qp3tb03']</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2130,83 +2130,83 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>['Department of English and Communication, The International Research Centre for the Advancement of Health Communication, The Hong Kong Polytechnic University']</t>
+          <t>['Carleton University,Canada', 'Tianjin University,China', 'Beijing University of Technology,China']</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['hong kong polytechnic universi']</t>
+          <t>['carleton universi', 'tianjin universi', 'beijing universi technology']</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['https://ror.org/0030zas98']</t>
+          <t>['https://ror.org/02qtvee93', 'https://ror.org/012tb2g32', 'https://ror.org/037b1pp87']</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>['Department of Medicine, Division of Infectious Diseases, Zealand University Hospital Roskilde, Denmark']</t>
+          <t>['Department of English and Communication, The International Research Centre for the Advancement of Health Communication, The Hong Kong Polytechnic University']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['zealand universi hospital']</t>
+          <t>['hong kong polytechnic universi']</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['https://ror.org/00363z010']</t>
+          <t>['https://ror.org/0030zas98']</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[0.87]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>["Department of Biochemistry, Queen's University, Kingston, Ontario, Canada K7L 3N6", "Department of Biology, Queen's University, Kingston, Ontario, Canada K7L 3N6"]</t>
+          <t>['Department of Medicine, Division of Infectious Diseases, Zealand University Hospital Roskilde, Denmark']</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['queens universi', 'queens universi']</t>
+          <t>['zealand universi hospital']</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['https://ror.org/02y72wh86', 'https://ror.org/02y72wh86']</t>
+          <t>['https://ror.org/00363z010']</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.87]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>['Institute for Flight Mechanics and Controls,The Faculty of Aerospace Engineering and Geodesy,University of Stuttgart,Stuttgart,Germany,70569', 'Max Planck Institute for Intelligent Systems.,T&amp;#x00FC;bingen,Germany,72076']</t>
+          <t>["Department of Biochemistry, Queen's University, Kingston, Ontario, Canada K7L 3N6", "Department of Biology, Queen's University, Kingston, Ontario, Canada K7L 3N6"]</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['universi stuttgart', 'max planck institute intelligent systems']</t>
+          <t>['queens universi', 'queens universi']</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['https://ror.org/04vnq7t77', 'https://ror.org/04fq9j139']</t>
+          <t>['https://ror.org/00strmv13', 'https://ror.org/00strmv13']</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2218,237 +2218,237 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>['Inner Mongolia Agricultural University, Mechanical and Electrical Engineering College, Hohhot, China', 'Hohhot Vocational College, Mechanical and Electrical Engineering Department, Hohhot, China']</t>
+          <t>['Max Planck Institute for Intelligent Systems.,T&amp;#x00FC;bingen,Germany,72076', 'Institute for Flight Mechanics and Controls,The Faculty of Aerospace Engineering and Geodesy,University of Stuttgart,Stuttgart,Germany,70569']</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['inner mongolia agricultural universi', 'shenyang mechanical electrical engineering college']</t>
+          <t>['max planck institute intelligent systems', 'universi stuttgart']</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['https://ror.org/015d0jq83', 'https://ror.org/00d7f8730']</t>
+          <t>['https://ror.org/04fq9j139', 'https://ror.org/04vnq7t77']</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[1, 0.8944271909999159]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>['Department of Biology, University of California, San Diego, La Jolla 92093-0063.']</t>
+          <t>['Hohhot Vocational College, Mechanical and Electrical Engineering Department, Hohhot, China', 'Inner Mongolia Agricultural University, Mechanical and Electrical Engineering College, Hohhot, China']</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['universi california san diego']</t>
+          <t>['inner mongolia agricultural universi', 'shenyang mechanical electrical engineering college']</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['https://ror.org/0168r3w48']</t>
+          <t>['https://ror.org/00d7f8730', 'https://ror.org/015d0jq83']</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[0.71]</t>
+          <t>[1, 0.8944271909999159]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>['Department of Materials Science and Engineering Dalian Maritime University  Dalian 116085 China', 'Division of Energy Storage Dalian National Laboratory for Clean Energy Dalian Institute of Chemical Physics Chinese Academy of Sciences  Dalian 116023 China']</t>
+          <t>['Department of Biology, University of California, San Diego, La Jolla 92093-0063.']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['dalian maritime universi']</t>
+          <t>['universi california san diego']</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['https://ror.org/002b7nr53']</t>
+          <t>['https://ror.org/0168r3w48']</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[0.77]</t>
+          <t>[0.71]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>['Division of Clinical Immunology, Department of Medicine, University of Colorado Medical School , Denver, Colorado 80220']</t>
+          <t>['Department of Materials Science and Engineering Dalian Maritime University  Dalian 116085 China', 'Division of Energy Storage Dalian National Laboratory for Clean Energy Dalian Institute of Chemical Physics Chinese Academy of Sciences  Dalian 116023 China']</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['universi colorado']</t>
+          <t>['dalian maritime universi']</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['https://ror.org/00jc20583']</t>
+          <t>['https://ror.org/002b7nr53']</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[0.77]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>['Experimental Immunology Branch, National Cancer Institute, Bethesda, MD 20892.']</t>
+          <t>['Division of Clinical Immunology, Department of Medicine, University of Colorado Medical School , Denver, Colorado 80220']</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['national cancer institute']</t>
+          <t>['universi colorado']</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['https://ror.org/040gcmg81']</t>
+          <t>['https://ror.org/00jc20583']</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>['KÜTAHYA DUMLUPINAR ÜNİVERSİTESİ']</t>
+          <t>['Experimental Immunology Branch, National Cancer Institute, Bethesda, MD 20892.']</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['dumlupinar universi']</t>
+          <t>['national cancer institute']</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>['https://ror.org/03jtrja12']</t>
+          <t>['https://ror.org/040gcmg81']</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[0.816496580927726]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>['Laboratory of Immunology, Division of Hematologic Products, Center for Biologics Evaluation Research and Review, U.S. Food and Drug Administration, Bethesda, MD']</t>
+          <t>['KÜTAHYA DUMLUPINAR ÜNİVERSİTESİ']</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['center biologics evaluation research']</t>
+          <t>['kutahya dumlupinar universi']</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['https://ror.org/02nr3fr97']</t>
+          <t>['https://ror.org/03jtrja12']</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[0.8944271909999159]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>['College of Resources and Environment, University of Chinese Academy of Sciences  Beijing China', 'Beijing Yanshan Earth Critical Zone National Research Station University of Chinese Academy of Sciences  Beijing China', 'Institute of General Ecology and Environmental Protection, Technische Universität Dresden, Pienner Strasse 7  Tharandt Germany', 'Leipzig Institute for Meteorology, Universität Leipzig, Stephanstraße 3  Leipzig Germany', 'Jiangxi Key Laboratory of Plant Resources and Biodiversity Jingdezhen University  Jingdezhen China', 'German Centre for Integrative Biodiversity Research (iDiv) Halle‐Jena‐Leipzig, Puschstrasse 4  Leipzig Germany', 'UFZ‐Helmholtz Centre for Environmental Research, Department of Community Ecology, Theodor‐Lieser‐Strasse 4  Halle (Saale) Germany', 'Institute of Biology, Leipzig University, Puschstrasse 4  Leipzig Germany', 'CEFE, Univ Montpellier, CNRS, EPHE, IRD, 1919, route de Mende  Montpellier Cedex 5 France', 'Institute of Biology/Geobotany and Botanical Garden, Martin Luther University Halle‐Wittenberg, Am Kirchtor 1  Halle Germany', 'College of Forestry Jiangxi Agricultural University  Nanchang China', 'State Key Laboratory of Tibetan Plateau Earth System, Environment and Resources (TPESER), Chinese Academy of Sciences  Beijing China', 'Institute of Geography, University of Tübingen, Rümelinstrasse 19‐23  Tübingen Germany']</t>
+          <t>['Laboratory of Immunology, Division of Hematologic Products, Center for Biologics Evaluation Research and Review, U.S. Food and Drug Administration, Bethesda, MD']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['universi chinese academy sciences', 'universi chinese academy sciences', 'technische universi dresden', 'universi leipzig', 'jingdezhen universi', 'helmholtz centre environmental research', 'leipzig universi', 'universi montpellier', 'cnrs', 'martin luther universi hallewittenberg', 'china agricultural universi', 'universi tubingen']</t>
+          <t>['center biologics evaluation research']</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['https://ror.org/05qbk4x57', 'https://ror.org/05qbk4x57', 'https://ror.org/042aqky30', 'https://ror.org/03s7gtk40', 'https://ror.org/012czx379', 'https://ror.org/000h6jb29', 'https://ror.org/03s7gtk40', 'https://ror.org/051escj72', 'https://ror.org/02feahw73', 'https://ror.org/05gqaka33', 'https://ror.org/04v3ywz14', 'https://ror.org/03a1kwz48']</t>
+          <t>['https://ror.org/02nr3fr97']</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[1, 0.7559289460184544, 1, 1, 0.7499999999999998, 0.8660254037844388, 1, 0.7071067811865475, 1, 1, 0.71, 1]</t>
+          <t>[0.8944271909999159]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>['Laboratory of Immunology, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland 20014']</t>
+          <t>['CEFE, Univ Montpellier, CNRS, EPHE, IRD, 1919, route de Mende  Montpellier Cedex 5 France', 'Institute of Geography, University of Tübingen, Rümelinstrasse 19‐23  Tübingen Germany', 'Beijing Yanshan Earth Critical Zone National Research Station University of Chinese Academy of Sciences  Beijing China', 'College of Resources and Environment, University of Chinese Academy of Sciences  Beijing China', 'Leipzig Institute for Meteorology, Universität Leipzig, Stephanstraße 3  Leipzig Germany', 'Institute of Biology/Geobotany and Botanical Garden, Martin Luther University Halle‐Wittenberg, Am Kirchtor 1  Halle Germany', 'College of Forestry Jiangxi Agricultural University  Nanchang China', 'UFZ‐Helmholtz Centre for Environmental Research, Department of Community Ecology, Theodor‐Lieser‐Strasse 4  Halle (Saale) Germany', 'State Key Laboratory of Tibetan Plateau Earth System, Environment and Resources (TPESER), Chinese Academy of Sciences  Beijing China', 'German Centre for Integrative Biodiversity Research (iDiv) Halle‐Jena‐Leipzig, Puschstrasse 4  Leipzig Germany', 'Institute of General Ecology and Environmental Protection, Technische Universität Dresden, Pienner Strasse 7  Tharandt Germany', 'Institute of Biology, Leipzig University, Puschstrasse 4  Leipzig Germany', 'Jiangxi Key Laboratory of Plant Resources and Biodiversity Jingdezhen University  Jingdezhen China']</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
+          <t>['universi montpellier', 'cnrs', 'universi tubingen', 'universi chinese academy sciences', 'universi chinese academy sciences', 'universi leipzig', 'martin luther universi halle wittenberg', 'jiangxi agricultural universi', 'helmholtz centre environmental research', 'technische universi dresden', 'leipzig universi', 'jingdezhen universi']</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
+          <t>['https://ror.org/02feahw73', 'https://ror.org/051escj72', 'https://ror.org/03a1kwz48', 'https://ror.org/05qbk4x57', 'https://ror.org/05qbk4x57', 'https://ror.org/03s7gtk40', 'https://ror.org/05gqaka33', 'https://ror.org/00dc7s858', 'https://ror.org/000h6jb29', 'https://ror.org/042aqky30', 'https://ror.org/03s7gtk40', 'https://ror.org/012czx379']</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.7071067811865475, 1, 1, 0.76, 1, 1, 1, 0.71, 0.8944271909999159, 1, 1, 0.7499999999999998]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>['Blood Bank Department, Clinical Center, National Institutes of Health From the , Bethesda, Maryland , and the , Bethesda, Maryland 20014', 'Laboratory of Infectious Diseases, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland , and the , Bethesda, Maryland 20014']</t>
+          <t>['Laboratory of Immunology, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland 20014']</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institutes health', 'national institute allergy infectious diseases']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['https://ror.org/01cwqze88', 'https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
+          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>['University of Cantabria, Spain']</t>
+          <t>['YILDIZ TEKNİK ÜNİVERSİTESİ']</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['universi cantabria']</t>
+          <t>['yildiz teknik universi']</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['https://ror.org/046ffzj20']</t>
+          <t>['https://ror.org/0547yzj13']</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2460,39 +2460,39 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>['Department of Neurosurgery, Kinki Central Hospital of the Mutual Aid Association of Public School Teachers', 'Department of Neurosurgery, Osaka University Graduate School of Medicine', 'Department of Neurosurgery, Hanwa Memorial Hospital']</t>
+          <t>['Laboratory of Infectious Diseases, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland , and the , Bethesda, Maryland 20014', 'Blood Bank Department, Clinical Center, National Institutes of Health From the , Bethesda, Maryland , and the , Bethesda, Maryland 20014']</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['osaka graduate universi', 'hanwa memorial hospital']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>['https://ror.org/04a8t1e98', 'https://ror.org/03zsbd109']</t>
+          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69', 'https://ror.org/01cwqze88']</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[0.7745966692414834, 1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>['Universität Konstanz, Fakultät für Biologie, Germany.']</t>
+          <t>['University of Cantabria, Spain']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['universi konstanz']</t>
+          <t>['universi cantabria']</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['https://ror.org/0546hnb39']</t>
+          <t>['https://ror.org/046ffzj20']</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2504,17 +2504,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>['Department of Medicine, Johns Hopkins Asthma and Allergy Center, Johns Hopkins University, Baltimore, MD 21224, USA.']</t>
+          <t>['НАВЧАЛЬНО-НАУКОВИЙ ІНСТИТУТ МОРСЬКОГО БІЗНЕСУ, ОДЕСЬКИЙ НАЦІОНАЛЬНИЙ МОРСЬКИЙ УНІВЕРСИТЕТ, Одеса, Україна']</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['johns hopkins universi']</t>
+          <t>['odeskii natsionalnii morskii universi']</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>['https://ror.org/00za53h95']</t>
+          <t>['https://ror.org/05qze6v15']</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2526,61 +2526,61 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>['College of Computer Science, Civil Aviation Flight University of China, Guanghan, China']</t>
+          <t>['Department of Neurosurgery, Kinki Central Hospital of the Mutual Aid Association of Public School Teachers', 'Department of Neurosurgery, Osaka University Graduate School of Medicine', 'Department of Neurosurgery, Hanwa Memorial Hospital']</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['civil aviation flight universi china']</t>
+          <t>['osaka graduate universi', 'hanwa memorial hospital']</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['https://ror.org/01xyb1v19']</t>
+          <t>['https://ror.org/04a8t1e98', 'https://ror.org/03zsbd109']</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.7745966692414834, 1]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>['University of California,RoMeLa (the Robotics and Mechanisms Laboratory),Los Angeles,USA']</t>
+          <t>['Universität Konstanz, Fakultät für Biologie, Germany.']</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['universi california los angeles']</t>
+          <t>['universi konstanz']</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>['https://ror.org/046rm7j60']</t>
+          <t>['https://ror.org/0546hnb39']</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[0.71]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>['SÜLEYMAN DEMİREL ÜNİVERSİTESİ']</t>
+          <t>['Department of Medicine, Johns Hopkins Asthma and Allergy Center, Johns Hopkins University, Baltimore, MD 21224, USA.']</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['suleyman demirel universi']</t>
+          <t>['johns hopkins universi']</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['https://ror.org/04fjtte88']</t>
+          <t>['https://ror.org/00za53h95']</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2592,61 +2592,61 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>['School of Electronic Information and Electrical Engineering, Shanghai Jiao Tong University,Shanghai,China', 'Cornell University,Department of Computer Science,Ithaca,NY,USA', 'Columbia University,USA']</t>
+          <t>['College of Computer Science, Civil Aviation Flight University of China, Guanghan, China']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['shanghai jiao tong universi', 'cornell universi', 'columbia universi']</t>
+          <t>['civil aviation flight universi china']</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>['https://ror.org/0220qvk04', 'https://ror.org/05bnh6r87', 'https://ror.org/00hj8s172']</t>
+          <t>['https://ror.org/01xyb1v19']</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>['Massachusetts Institute of Technology,Laboratory for Information and Decision Systems,Cambridge,MA,USA,02139', 'Massachusetts Institute of Technology,Faculty of Aeronautics and Astronautics,Cambridge,MA,USA,02139', 'Perception and Embedded ML Group,Draper,Cambridge,MA,USA,02139', 'Massachusetts Institute of Technology,Department of Aeronautics and Astronautics,Cambridge,MA,USA,02139']</t>
+          <t>['University of California,RoMeLa (the Robotics and Mechanisms Laboratory),Los Angeles,USA']</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['massachusetts institute technology']</t>
+          <t>['universi california los angeles']</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>['https://ror.org/042nb2s44']</t>
+          <t>['https://ror.org/046rm7j60']</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.71]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>['Department of Pathology, Uniformed Services University of the Health Sciences, Bethesda, MD 20814.']</t>
+          <t>['SÜLEYMAN DEMİREL ÜNİVERSİTESİ']</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>['uniformed services universi health sciences']</t>
+          <t>['suleyman demirel universi']</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>['https://ror.org/04r3kq386']</t>
+          <t>['https://ror.org/04fjtte88']</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2658,83 +2658,83 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>['Department of Oral and Maxillofacial Surgery, School of Dentistry, Pusan National University, Yangsan, Korea']</t>
+          <t>['Cornell University,Department of Computer Science,Ithaca,NY,USA', 'Columbia University,USA', 'School of Electronic Information and Electrical Engineering, Shanghai Jiao Tong University,Shanghai,China']</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>['pusan national universi']</t>
+          <t>['cornell universi', 'columbia universi', 'shanghai jiao tong universi']</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>['https://ror.org/01an57a31']</t>
+          <t>['https://ror.org/05bnh6r87', 'https://ror.org/00hj8s172', 'https://ror.org/0220qvk04']</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>['Department of Materials Science and Engineering Sun Yat‐Sen University  Guangzhou 510275 China', 'School of Materials Sun Yat‐Sen University  Guangzhou Guangdong 510275 China', 'Guangzhou Key Laboratory of Analytical Chemistry for Biomedicine South China Normal University  Guangzhou 510006 China', 'State Key Laboratory of Optoelectronic Materials and Technologies  Guangzhou Guangdong 510275 China', 'South China Academy of Advanced Optoelectronics South China Normal University  Guangzhou 510006 China']</t>
+          <t>['Massachusetts Institute of Technology,Laboratory for Information and Decision Systems,Cambridge,MA,USA,02139', 'Massachusetts Institute of Technology,Faculty of Aeronautics and Astronautics,Cambridge,MA,USA,02139', 'Massachusetts Institute of Technology,Department of Aeronautics and Astronautics,Cambridge,MA,USA,02139', 'Perception and Embedded ML Group,Draper,Cambridge,MA,USA,02139']</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>['south china normal universi', 'south china normal universi']</t>
+          <t>['massachusetts institute technology']</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>['https://ror.org/01kq0pv72', 'https://ror.org/01kq0pv72']</t>
+          <t>['https://ror.org/042nb2s44']</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[0.83, 0.83]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>['Department of Microbiology, The George Washington University Medical Center From the , Bethesda, Maryland , and the , Washington, District of Columbia', 'Laboratory of Microbiology and Immunology, National Institute of Dental Research, National Institutes of Health From the , Bethesda, Maryland , and the , Washington, District of Columbia']</t>
+          <t>['Department of Pathology, Uniformed Services University of the Health Sciences, Bethesda, MD 20814.']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>['washington universi medical center', 'national institutes health']</t>
+          <t>['uniformed services universi health sciences']</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>['https://ror.org/036c27j91', 'https://ror.org/01cwqze88']</t>
+          <t>['https://ror.org/04r3kq386']</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[0.89, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>['Institute of General Pathology, University of Palermo, ISMEDA-CNR, Italy.']</t>
+          <t>['Department of Oral and Maxillofacial Surgery, School of Dentistry, Pusan National University, Yangsan, Korea']</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>['universi palermo']</t>
+          <t>['pusan national universi']</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>['https://ror.org/04fz79c74']</t>
+          <t>['https://ror.org/01an57a31']</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2746,237 +2746,237 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>['University of Erlangen-Nurnberg, Faculty of Medicine, Department of Medicine IV, Erlangen, Germany.']</t>
+          <t>['Department of Materials Science and Engineering Sun Yat‐Sen University  Guangzhou 510275 China', 'State Key Laboratory of Optoelectronic Materials and Technologies  Guangzhou Guangdong 510275 China', 'South China Academy of Advanced Optoelectronics South China Normal University  Guangzhou 510006 China', 'School of Materials Sun Yat‐Sen University  Guangzhou Guangdong 510275 China', 'Guangzhou Key Laboratory of Analytical Chemistry for Biomedicine South China Normal University  Guangzhou 510006 China']</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>['friedrichalexanderuniversity erlangennurnberg']</t>
+          <t>['sun yat sen universi', 'south china normal universi', 'sun yat sen universi', 'south china normal universi']</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>['https://ror.org/00f7hpc57']</t>
+          <t>['https://ror.org/0064kty71', 'https://ror.org/01kq0pv72', 'https://ror.org/0064kty71', 'https://ror.org/01kq0pv72']</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[0.71]</t>
+          <t>[0.7559289460184544, 0.83, 0.7559289460184544, 0.83]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>['Department of Chemistry, University of British Columbia, Vancouver, BC, Canada, V6T 1Z1']</t>
+          <t>['Department of Psychiatry, Albert-Ludwigs-University, Freiburg, Germany.']</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>['universi british columbia']</t>
+          <t>['albert ludwigs universi freiburg']</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>['https://ror.org/03rmrcq20']</t>
+          <t>['https://ror.org/0245cg223']</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>['BCN MedTech, Department of Information and Communication Technologies, Universitat Pompeu Fabra, Barcelona, Spain', 'Department of Biomedical Engineering and Mechanics, Virginia Tech, Blacksburg, VA, USA', 'Serra H&amp;#x00FA;nter Fellow Programme, Universitat Pompeu Fabra, Barcelona, Spain']</t>
+          <t>['Laboratory of Microbiology and Immunology, National Institute of Dental Research, National Institutes of Health From the , Bethesda, Maryland , and the , Washington, District of Columbia', 'Department of Microbiology, The George Washington University Medical Center From the , Bethesda, Maryland , and the , Washington, District of Columbia']</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>['universi pompeu fabra', 'virginia tech', 'universi pompeu fabra']</t>
+          <t>['national institutes health', 'washington universi medical center']</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>['https://ror.org/04n0g0b29', 'https://ror.org/02smfhw86', 'https://ror.org/04n0g0b29']</t>
+          <t>['https://ror.org/01cwqze88', 'https://ror.org/036c27j91']</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[1, 0.89]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>['Ph.D. Candidate, Dept. of Civil Engineering, Univ. of Manitoba, Winnipeg, MB, Canada R3T 5V6; Lecture and Research Assistant, Dept. of Structural Engineering, Future Univ., Cairo 11835, Egypt.', 'Professor, Dept. of Civil Engineering, Univ. of Manitoba, Winnipeg, MB, Canada R3T 5V6 (corresponding author).']</t>
+          <t>['Institute of General Pathology, University of Palermo, ISMEDA-CNR, Italy.']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>['future universi', 'universi manitoba', 'universi manitoba']</t>
+          <t>['universi palermo']</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>['https://ror.org/0092t1z08', 'https://ror.org/02gfys938', 'https://ror.org/02gfys938']</t>
+          <t>['https://ror.org/044k9ta02']</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[0.7071067811865475, 0.7071067811865475, 0.7071067811865475]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>['Salesian Polytechnic University,Electrical engineering department,Quito,Ecuador']</t>
+          <t>['University of Erlangen-Nurnberg, Faculty of Medicine, Department of Medicine IV, Erlangen, Germany.']</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>['salesian universi']</t>
+          <t>['friedrich alexander universi erlangen nurnberg']</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>['https://ror.org/04vhngq09']</t>
+          <t>['https://ror.org/00f7hpc57']</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[0.82]</t>
+          <t>[0.7745966692414834]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>['Department of Transplantation Immunology, Institute of Immunology, University of Heidelberg, Germany.']</t>
+          <t>['Department of Chemistry, University of British Columbia, Vancouver, BC, Canada, V6T 1Z1']</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>['heidelberg universi']</t>
+          <t>['universi british columbia']</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>['https://ror.org/038t36y30']</t>
+          <t>['https://ror.org/03rmrcq20']</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[1.0]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>['From the Hypertension and Vascular Research Division, Henry Ford Hospital, Detroit, Mich.']</t>
+          <t>['BCN MedTech, Department of Information and Communication Technologies, Universitat Pompeu Fabra, Barcelona, Spain', 'Serra H&amp;#x00FA;nter Fellow Programme, Universitat Pompeu Fabra, Barcelona, Spain', 'Department of Biomedical Engineering and Mechanics, Virginia Tech, Blacksburg, VA, USA']</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>['henry ford hospital']</t>
+          <t>['universi pompeu fabra', 'universi pompeu fabra', 'virginia tech']</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>['https://ror.org/0193sb042']</t>
+          <t>['https://ror.org/04n0g0b29', 'https://ror.org/04n0g0b29', 'https://ror.org/02smfhw86']</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>['Graphic Era University,Department of ECE,Dehradun,India', 'Graphic Era Hill University,Department of ECE,Bhimtal,India']</t>
+          <t>['Ph.D. Candidate, Dept. of Civil Engineering, Univ. of Manitoba, Winnipeg, MB, Canada R3T 5V6; Lecture and Research Assistant, Dept. of Structural Engineering, Future Univ., Cairo 11835, Egypt.', 'Professor, Dept. of Civil Engineering, Univ. of Manitoba, Winnipeg, MB, Canada R3T 5V6 (corresponding author).']</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>['graphic era universi', 'graphic era hill universi']</t>
+          <t>['future universi', 'universi manitoba', 'universi manitoba']</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>['https://ror.org/03wqgqd89', 'https://ror.org/01bb4h160']</t>
+          <t>['https://ror.org/0092t1z08', 'https://ror.org/02gfys938', 'https://ror.org/02gfys938']</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.7071067811865475, 0.7071067811865475, 0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>['KAHRAMANMARAŞ SÜTÇÜ İMAM ÜNİVERSİTESİ, KAHRAMANMARAŞ MESLEK YÜKSEKOKULU', 'ANKARA HACI BAYRAM VELİ ÜNİVERSİTESİ']</t>
+          <t>['Salesian Polytechnic University,Electrical engineering department,Quito,Ecuador']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universi']</t>
+          <t>['polytechnic universi']</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>['https://ror.org/03gn5cg19']</t>
+          <t>['https://ror.org/02f0psx94']</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.82]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>['Department of Pathology, University of Maryland, School of Medicine, Baltimore 21201.']</t>
+          <t>['Department of Transplantation Immunology, Institute of Immunology, University of Heidelberg, Germany.']</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>['universi maryland']</t>
+          <t>['heidelberg universi']</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>['https://ror.org/047s2c258']</t>
+          <t>['https://ror.org/038t36y30']</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1.0]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>['Department of Biomedical Laboratory Science and Microbiological Resource Research Institute, Far East University, Eumseong 27601, Republic of Korea']</t>
+          <t>['From the Hypertension and Vascular Research Division, Henry Ford Hospital, Detroit, Mich.']</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>['far east universi']</t>
+          <t>['henry ford hospital']</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>['https://ror.org/03ms7mr17']</t>
+          <t>['https://ror.org/0193sb042']</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2988,105 +2988,105 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>['Universitat Polit&amp;#x00E8;cnica de Val&amp;#x00E8;ncia,iTEAM Research Institute,Photonics Research Labs,Valencia,Spain', 'Technologies Canada Co., Ltd.,Competency Centre Huawei,Ottawa Wireless Advanced System,Ottawa,Canada']</t>
+          <t>['Graphic Era University,Department of ECE,Dehradun,India', 'Graphic Era Hill University,Department of ECE,Bhimtal,India']</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>['universi politecnica valencia']</t>
+          <t>['graphic era universi', 'graphic era hill universi']</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>['https://ror.org/01460j859']</t>
+          <t>['https://ror.org/03wqgqd89', 'https://ror.org/01bb4h160']</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>['National Institute of Immunology, New Delhi, India.']</t>
+          <t>['KAHRAMANMARAŞ SÜTÇÜ İMAM ÜNİVERSİTESİ, KAHRAMANMARAŞ MESLEK YÜKSEKOKULU', 'ANKARA HACI BAYRAM VELİ ÜNİVERSİTESİ']</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>['national institute immunology']</t>
+          <t>['kahramanmaras sutcu imam universi', 'ankara haci bayram veli universi']</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>['https://ror.org/04fhee747']</t>
+          <t>['https://ror.org/03gn5cg19', 'https://ror.org/05mskc574']</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 0.8944271909999159]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>['Department of Pathology, University of Iowa College of Medicine, Iowa City 52242.']</t>
+          <t>['Department of Pathology, University of Maryland, School of Medicine, Baltimore 21201.']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>['universi iowa']</t>
+          <t>['universi maryland']</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>['https://ror.org/036jqmy94']</t>
+          <t>['https://ror.org/047s2c258']</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>['*Institut National de la Santé et de la Recherche Médicale (INSERM) U345, Institut Necker, and', '‡INSERM U25, Hôpital Necker, Paris, France', '†Centre National de la Recherche Scientifique, Unité de Recherche Associée 1461, and']</t>
+          <t>['Department of Biomedical Laboratory Science and Microbiological Resource Research Institute, Far East University, Eumseong 27601, Republic of Korea']</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>['institut national la sante la recherche medicale', 'centre national la recherche scientifique']</t>
+          <t>['far east universi']</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>['https://ror.org/02vjkv261', 'https://ror.org/02feahw73']</t>
+          <t>['https://ror.org/03ms7mr17']</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[0.9486832980505138, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>['Duke University Medical Center , Durham, N. C.']</t>
+          <t>['Universitat Polit&amp;#x00E8;cnica de Val&amp;#x00E8;ncia,iTEAM Research Institute,Photonics Research Labs,Valencia,Spain', 'Technologies Canada Co., Ltd.,Competency Centre Huawei,Ottawa Wireless Advanced System,Ottawa,Canada']</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>['duke universi medical center']</t>
+          <t>['universi politecnica valencia']</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>['https://ror.org/03njmea73']</t>
+          <t>['https://ror.org/01460j859']</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3098,39 +3098,39 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>['*Division of Critical Care, Children’s Hospital Medical Center, Cincinnati, OH 45229; and', '†Department of Pathophysiology, University Medical School of Debrecen, Debrecen, Hungary']</t>
+          <t>['National Institute of Immunology, New Delhi, India.']</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>['childrens hospital medical center', 'universi debrecen']</t>
+          <t>['national institute immunology']</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>['https://ror.org/04j36h363', 'https://ror.org/02xf66n48']</t>
+          <t>['https://ror.org/04fhee747']</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[1, 0.7071067811865475]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>['Departments of Pathology and Microbiology, Washington University School of Medicine From the , St. Louis, Missouri 63110']</t>
+          <t>['Department of Pathology, University of Iowa College of Medicine, Iowa City 52242.']</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>['universi washington']</t>
+          <t>['universi iowa']</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>['https://ror.org/00cvxb145']</t>
+          <t>['https://ror.org/036jqmy94']</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3142,281 +3142,281 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>['Resident, Department of Conservative Dentistry, Chonnam National University, Gwangju, Republic of Korea', 'Professor, Department of Conservative Dentistry, Chonnam National University, Gwangju, Republic of Korea']</t>
+          <t>['*Institut National de la Santé et de la Recherche Médicale (INSERM) U345, Institut Necker, and', '‡INSERM U25, Hôpital Necker, Paris, France', '†Centre National de la Recherche Scientifique, Unité de Recherche Associée 1461, and']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>['chonnam national universi', 'chonnam national universi']</t>
+          <t>['institut national la sante la recherche medicale', 'centre national la recherche scientifique']</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>['https://ror.org/05kzjxq56', 'https://ror.org/05kzjxq56']</t>
+          <t>['https://ror.org/02vjkv261', 'https://ror.org/02feahw73']</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.9486832980505138, 1]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>['International Research Center for Neurointelligence (World Premier International Research Center Initiative; WPI-IRCN), Institutes for Advanced Study (UTIAS), The University of Tokyo, Tokyo 113-0033, Japan', 'Laboratoire de Sciences Cognitives et Psycholinguistique, Ecole Normale Supérieure, Paris Sciences et Lettres, 75005 Paris, France', 'Department of Psychology, University of Toronto, Toronto, ON M5S 3G3, Canada']</t>
+          <t>['Duke University Medical Center , Durham, N. C.']</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>['universi tokyo', 'laboratoire sciences cognitives psycholinguistique', 'ecole normale superieure', 'universi toronto']</t>
+          <t>['duke universi medical center']</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>['https://ror.org/057zh3y96', 'https://ror.org/05fvhm231', 'https://ror.org/01dp7jr64', 'https://ror.org/03dbr7087']</t>
+          <t>['https://ror.org/04bct7p84']</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>['Senior Lecturer at the Department at the Civil and Labor Law Department of the Odesa National Maritime University', 'Doctor of Law (2nd PhD), Professor, Head of the educational and scientific laboratory of legal regulation of shipping and cargo protection, Professor at the Civil and Labor Law Department of the Odessa National Maritime University']</t>
+          <t>['†Department of Pathophysiology, University Medical School of Debrecen, Debrecen, Hungary', '*Division of Critical Care, Children’s Hospital Medical Center, Cincinnati, OH 45229; and']</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>['national universi', 'odessa national maritime universi']</t>
+          <t>['universi debrecen', 'childrens hospital  medical center']</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>['https://ror.org/003r3cg42', 'https://ror.org/05qze6v15']</t>
+          <t>['https://ror.org/02xf66n48', 'https://ror.org/04j36h363']</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[0.7071067811865475, 1]</t>
+          <t>[0.7071067811865475, 1.0]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>['*National Creative Research Initiative Center for Calcium and Learning,', '†Department of Life Science and School of Environmental Engineering, Pohang University of Science and Technology, Pohang, South Korea']</t>
+          <t>['Departments of Pathology and Microbiology, Washington University School of Medicine From the , St. Louis, Missouri 63110']</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>['pohang universi science technology']</t>
+          <t>['universi washington']</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>['https://ror.org/04xysgw12']</t>
+          <t>['https://ror.org/00cvxb145']</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>['University of Illinois From the , Miami, Florida , the , Urbana, Illinois and the , Bimini, Bahamas', 'Lerner Marine Laboratory From the , Miami, Florida , the , Urbana, Illinois and the , Bimini, Bahamas', 'Department of Microbiology, University of Miami School of Medicine From the , Miami, Florida , the , Urbana, Illinois and the , Bimini, Bahamas']</t>
+          <t>['Resident, Department of Conservative Dentistry, Chonnam National University, Gwangju, Republic of Korea', 'Professor, Department of Conservative Dentistry, Chonnam National University, Gwangju, Republic of Korea']</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>['universi illinois', 'miami universi']</t>
+          <t>['chonnam national universi', 'chonnam national universi']</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>['https://ror.org/05e94g991', 'https://ror.org/05nbqxr67']</t>
+          <t>['https://ror.org/05kzjxq56', 'https://ror.org/05kzjxq56']</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[1, 0.71]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>['Department of Electrical and Computer Engineering, National Yang Ming Chiao Tung University, Hsinchu, Taiwan']</t>
+          <t>['Laboratoire de Sciences Cognitives et Psycholinguistique, Ecole Normale Supérieure, Paris Sciences et Lettres, 75005 Paris, France', 'Department of Psychology, University of Toronto, Toronto, ON M5S 3G3, Canada', 'International Research Center for Neurointelligence (World Premier International Research Center Initiative; WPI-IRCN), Institutes for Advanced Study (UTIAS), The University of Tokyo, Tokyo 113-0033, Japan']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>['national yang ming chiao tung universi']</t>
+          <t>['laboratoire sciences cognitives psycholinguistique', 'ecole normale superieure', 'universi toronto', 'universi tokyo']</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>['https://ror.org/00se2k293']</t>
+          <t>['https://ror.org/01dp7jr64', 'https://ror.org/05fvhm231', 'https://ror.org/03dbr7087', 'https://ror.org/057zh3y96']</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[0.8164965809277261]</t>
+          <t>[1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>['Faculty of Food Technology and Biotechnology, University of Zagreb, Croatia']</t>
+          <t>['Doctor of Law (2nd PhD), Professor, Head of the educational and scientific laboratory of legal regulation of shipping and cargo protection, Professor at the Civil and Labor Law Department of the Odessa National Maritime University', 'Senior Lecturer at the Department at the Civil and Labor Law Department of the Odesa National Maritime University']</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>['universi zagreb']</t>
+          <t>['odessa national maritime universi', 'national universi']</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>['https://ror.org/00mv6sv71']</t>
+          <t>['https://ror.org/05qze6v15', 'https://ror.org/003r3cg42']</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>['Department of Biochemistry, Medical College of Miyazaki From the , Kiyotake, Miyazaki 889-16, Japan']</t>
+          <t>['†Department of Life Science and School of Environmental Engineering, Pohang University of Science and Technology, Pohang, South Korea', '*National Creative Research Initiative Center for Calcium and Learning,']</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>['miyazaki welfare medical college']</t>
+          <t>['pohang universi science technology']</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>['https://ror.org/03jrtp196']</t>
+          <t>['https://ror.org/04xysgw12']</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>[0.8660254037844388]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>["Division of Allergy and Pulmonary Disease, Children's Hospital, Stanford, CA."]</t>
+          <t>['Department of Microbiology, University of Miami School of Medicine From the , Miami, Florida , the , Urbana, Illinois and the , Bimini, Bahamas', 'Lerner Marine Laboratory From the , Miami, Florida , the , Urbana, Illinois and the , Bimini, Bahamas', 'University of Illinois From the , Miami, Florida , the , Urbana, Illinois and the , Bimini, Bahamas']</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>['childrens hospital']</t>
+          <t>['universi miami', 'universi illinois']</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>['https://ror.org/0511k4970']</t>
+          <t>['https://ror.org/02dgjyy92', 'https://ror.org/05e94g991']</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.71, 1]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>['Институт проблем передачи информации им. А.А. Харкевича Российской академии наук, г. Москва', 'Steklov Mathematical Institute of Russian Academy of Sciences, Moscow', 'Математический институт им. В.А. Стеклова Российской академии наук, г. Москва', 'Национальный исследовательский университет "Высшая школа экономики", г. Москва', 'University of Malaga, Испания', 'Institute for Information Transmission Problems of the Russian Academy of Sciences (Kharkevich Institute), Moscow', 'HSE University, Moscow']</t>
+          <t>['Department of Electrical and Computer Engineering, National Yang Ming Chiao Tung University, Hsinchu, Taiwan']</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>['universi malaga', 'universi univer']</t>
+          <t>['national yang ming chiao tung universi']</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>['https://ror.org/036b2ww28', 'https://ror.org/00erejq84']</t>
+          <t>['https://ror.org/00se2k293']</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[1, 0.7071067811865475]</t>
+          <t>[0.8164965809277261]</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>['University of Memphis,Department of Computer Science', 'University of Maryland at College Park,Department of Computer Science']</t>
+          <t>['Faculty of Food Technology and Biotechnology, University of Zagreb, Croatia']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>['universi memphis', 'universi maryland college park']</t>
+          <t>['universi zagreb']</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>['https://ror.org/01cq23130', 'https://ror.org/047s2c258']</t>
+          <t>['https://ror.org/00mv6sv71']</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>['Department of Psychology, University of British Columbia, Vancouver, Canada', 'Starling Minds, Vancouver, British Columbia, Canada', 'Department of Psychology, Simon Fraser University, Burnaby, Canada', 'Department of Psychiatry, University of British Columbia, Vancouver, Canada']</t>
+          <t>['Department of Biochemistry, Medical College of Miyazaki From the , Kiyotake, Miyazaki 889-16, Japan']</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>['universi british columbia', 'simon fraser universi', 'universi british columbia']</t>
+          <t>['miyazaki welfare medical college']</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>['https://ror.org/03rmrcq20', 'https://ror.org/0213rcc28', 'https://ror.org/03rmrcq20']</t>
+          <t>['https://ror.org/03jrtp196']</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>['Almetyevsk State Oil Institute']</t>
+          <t>["Division of Allergy and Pulmonary Disease, Children's Hospital, Stanford, CA."]</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>['almetyevsk state oil institute']</t>
+          <t>['childrens hospital']</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>['https://ror.org/00g1je163']</t>
+          <t>['https://ror.org/0511k4970']</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3428,193 +3428,193 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>['University of Texas Medical Branch, Department of Internal Medicine, Galveston 77555, USA.']</t>
+          <t>['Институт проблем передачи информации им. А.А. Харкевича Российской академии наук, г. Москва', 'Национальный исследовательский университет "Высшая школа экономики", г. Москва', 'HSE University, Moscow', 'Institute for Information Transmission Problems of the Russian Academy of Sciences (Kharkevich Institute), Moscow', 'Steklov Mathematical Institute of Russian Academy of Sciences, Moscow', 'University of Malaga, Испания', 'Математический институт им. В.А. Стеклова Российской академии наук, г. Москва']</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>['universi texas medical branch galveston']</t>
+          <t>['universi malaga']</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>['https://ror.org/016tfm930']</t>
+          <t>['https://ror.org/036b2ww28']</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[0.8944271909999159]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>['Assistant Professor, Department of Microbial Biotechnology, Bharathiar University, Coimbatore 641046, Tamil Nadu, India.', 'Department of Life Sciences, CHRIST (Deemed to be University), Hosur Road, Bengaluru 560029, Karnataka, India']</t>
+          <t>['University of Maryland at College Park,Department of Computer Science', 'University of Memphis,Department of Computer Science']</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>['bharathiar universi']</t>
+          <t>['universi maryland college park', 'universi memphis']</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>['https://ror.org/04fht8c22']</t>
+          <t>['https://ror.org/047s2c258', 'https://ror.org/01cq23130']</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>['National University of Uzbekistan named after M. Ulugbek']</t>
+          <t>['Department of Psychiatry, University of British Columbia, Vancouver, Canada', 'Department of Psychology, University of British Columbia, Vancouver, Canada', 'Starling Minds, Vancouver, British Columbia, Canada', 'Department of Psychology, Simon Fraser University, Burnaby, Canada']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>['national universi uzbekistan']</t>
+          <t>['universi british columbia', 'universi british columbia', 'simon fraser universi']</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>['https://ror.org/011647w73']</t>
+          <t>['https://ror.org/03rmrcq20', 'https://ror.org/03rmrcq20', 'https://ror.org/0213rcc28']</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[0.7745966692414834]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>['Department of Pathology, New England Medical Center, Boston, MA 02111.']</t>
+          <t>['Almetyevsk State Oil Institute']</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>['tuftsnew england medical center']</t>
+          <t>['almetyevsk state oil institute']</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>['https://ror.org/002hsbm82']</t>
+          <t>['https://ror.org/00g1je163']</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[0.8660254037844388]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>['Adıyaman Üniversitesi']</t>
+          <t>['University of Texas Medical Branch, Department of Internal Medicine, Galveston 77555, USA.']</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>['adıyaman universi']</t>
+          <t>['universi texas medical branch galveston']</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>['https://ror.org/02s4gkg68']</t>
+          <t>['https://ror.org/016tfm930']</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.8944271909999159]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>['University of Washington and Fred Hutchinson Cancer Center']</t>
+          <t>['Assistant Professor, Department of Microbial Biotechnology, Bharathiar University, Coimbatore 641046, Tamil Nadu, India.', 'Department of Life Sciences, CHRIST (Deemed to be University), Hosur Road, Bengaluru 560029, Karnataka, India']</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>['universi washington']</t>
+          <t>['bharathiar universi']</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>['https://ror.org/00cvxb145']</t>
+          <t>['https://ror.org/04fht8c22']</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>['Department of Clinical Laboratory The Third Medical Centre of Chinese PLA General Hospital The Training Site for Postgraduate of Jinzhou Medical University  Beijing China', 'Department of Clinical Laboratory The Third Medical Centre of Chinese PLA General Hospital  Beijing China', 'State Key Laboratory of Pathogen and Biosecurity Beijing Institute of Biotechnology  Beijing China']</t>
+          <t>['National University of Uzbekistan named after M. Ulugbek']</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>['china medical universi']</t>
+          <t>['national universi uzbekistan']</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>['https://ror.org/032d4f246']</t>
+          <t>['https://ror.org/011647w73']</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[0.7071067811865477]</t>
+          <t>[0.7745966692414834]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>['Sobolev Institute of Mathematics, Siberian Branch of the Russian Academy of Sciences']</t>
+          <t>['Department of Pathology, New England Medical Center, Boston, MA 02111.']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>['siberian branch russian academy sciences']</t>
+          <t>['tufts new england medical center']</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>['https://ror.org/02frkq021']</t>
+          <t>['https://ror.org/002hsbm82']</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.8944271909999159]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>['Brown University, Providence, RI, USA']</t>
+          <t>['Adıyaman Üniversitesi']</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>['brown universi']</t>
+          <t>['adiyaman universi']</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>['https://ror.org/05gq02987']</t>
+          <t>['https://ror.org/02s4gkg68']</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3626,105 +3626,105 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>['School of Mechanical Engineering, Xinjiang University, Wulumuqi, People’s Republic of China']</t>
+          <t>['University of Washington and Fred Hutchinson Cancer Center']</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>['xinjiang universi']</t>
+          <t>['fred hutchinson universi washington cancer consortium']</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>['https://ror.org/059gw8r13']</t>
+          <t>['https://ror.org/009tqys91']</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.82]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>['Department of Pathology, University of Michigan Medical School, Ann Arbor 48109, USA.']</t>
+          <t>['Department of Clinical Laboratory The Third Medical Centre of Chinese PLA General Hospital  Beijing China', 'State Key Laboratory of Pathogen and Biosecurity Beijing Institute of Biotechnology  Beijing China', 'Department of Clinical Laboratory The Third Medical Centre of Chinese PLA General Hospital The Training Site for Postgraduate of Jinzhou Medical University  Beijing China']</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>['universi michigan']</t>
+          <t>['china medical universi']</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>['https://ror.org/00jmfr291']</t>
+          <t>['https://ror.org/032d4f246']</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[0.7071067811865477]</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>['Cancer Biology Research Laboratory, Department of Radiology, Stanford University School of Medicine From the , Stanford, California 94305']</t>
+          <t>['Sobolev Institute of Mathematics, Siberian Branch of the Russian Academy of Sciences']</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>['stanford universi']</t>
+          <t>['siberian branch russian academy sciences']</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>['https://ror.org/00f54p054']</t>
+          <t>['https://ror.org/02frkq021']</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[0.71]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>['Transplantation Immunology and Blood Transfusion Service, University Hospital From the , Milan, Italy']</t>
+          <t>['Hitachi High-Tech Corporation,Minato-ku,Tokyo,Japan', 'Hitachi, Ltd,Research &amp;#x0026; Development Group,Kokubunji-shi,Tokyo,Japan', 'Hitachi, Ltd,Energy Business Unit,Chiyoda-ku,Tokyo,Japan']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>['groningen universi hospital']</t>
+          <t>['hitachi high tech']</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>['https://ror.org/03cv38k47']</t>
+          <t>['https://ror.org/033a1rv92']</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[0.82]</t>
+          <t>[0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>['Dermatology Branch, National Cancer Institute, Bethesda, MD 20892.']</t>
+          <t>['Brown University, Providence, RI, USA']</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>['national cancer institute']</t>
+          <t>['brown universi']</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>['https://ror.org/040gcmg81']</t>
+          <t>['https://ror.org/05gq02987']</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3736,17 +3736,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>['Departments of Medicine and Microbiology, College of Physicians and Surgeons, Columbia University From the , New York, New York']</t>
+          <t>['School of Mechanical Engineering, Xinjiang University, Wulumuqi, People’s Republic of China']</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>['columbia universi']</t>
+          <t>['xinjiang universi']</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>['https://ror.org/00hj8s172']</t>
+          <t>['https://ror.org/059gw8r13']</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3758,149 +3758,149 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>['†Consiglio Nazionale delle Ricerche, Center of Cellular and Molecular Pharmacology, Milan, Italy', '*Institut National de la Santé et de la Recherche Médicale, CJF 95-01, Institut Curie, Section Recherche, Paris, France; and']</t>
+          <t>['Department of Pathology, University of Michigan Medical School, Ann Arbor 48109, USA.']</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>['institut curie', 'institut national la sante la recherche medicale']</t>
+          <t>['universi michigan']</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>['https://ror.org/04t0gwh46', 'https://ror.org/02vjkv261']</t>
+          <t>['https://ror.org/00jmfr291']</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>['University of Johannesburg, South Africa', 'Hult International Business School, Greece', 'Glasgow Caledonian University, UK', 'Henley Business School, UK']</t>
+          <t>['Department of Forest Engineering, Resources, and Management Oregon State University  Corvallis OR USA']</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>['universi johannesburg', 'hult international business school', 'glasgow caledonian universi']</t>
+          <t>['oregon state universi']</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>['https://ror.org/04z6c2n17', 'https://ror.org/01wttbg53', 'https://ror.org/03dvm1235']</t>
+          <t>['https://ror.org/00ysfqy60']</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[0.65]</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>['From the Cardiovascular Medicine Section, Department of Medicine, Boston Medical Center and Myocardial Biology Unit, Boston University School of Medicine, Boston, Mass (D.B.S., T.A.M.), and the Institute of Cell Biology, Swiss Federal Institute of Technology, Zurich, and Swiss Cardiovascular Center Bern, Inselspital, Bern, Switzerland (C.Z., H.M.E., T.M.S.).']</t>
+          <t>['YILDIZ TEKNİK ÜNİVERSİTESİ']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>['boston universi', 'institute cell biology']</t>
+          <t>['yildiz teknik universi']</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>['https://ror.org/05qwgg493', 'https://ror.org/04fg7fb49']</t>
+          <t>['https://ror.org/0547yzj13']</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[0.71, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>['BURSA TEKNİK ÜNİVERSİTESİ', 'BURSA TECHNICAL UNIVERSITY']</t>
+          <t>['Cancer Biology Research Laboratory, Department of Radiology, Stanford University School of Medicine From the , Stanford, California 94305']</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>['bursa teknik universi', 'bursa technical universi']</t>
+          <t>['stanford universi']</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>['https://ror.org/03rdpn141', 'https://ror.org/03rdpn141']</t>
+          <t>['https://ror.org/00f54p054']</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.71]</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>['Department of Biochemistry, Kyushu University School of Dentistry, Fukuoka, Japan.']</t>
+          <t>['Transplantation Immunology and Blood Transfusion Service, University Hospital From the , Milan, Italy']</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>['kyushu universi']</t>
+          <t>['mie universi hospital']</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>['https://ror.org/00p4k0j84']</t>
+          <t>['https://ror.org/01v9g9c07']</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[0.82]</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>['Department of Pathology, Yale University School of Medicine From the , New Haven, Connecticut']</t>
+          <t>['Dermatology Branch, National Cancer Institute, Bethesda, MD 20892.']</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>['yale universi']</t>
+          <t>['national cancer institute']</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>['https://ror.org/03v76x132']</t>
+          <t>['https://ror.org/040gcmg81']</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[0.71]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>['Heriot-Watt University']</t>
+          <t>['Departments of Medicine and Microbiology, College of Physicians and Surgeons, Columbia University From the , New York, New York']</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>['heriotwatt universi']</t>
+          <t>['columbia universi']</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>['https://ror.org/04mghma93']</t>
+          <t>['https://ror.org/00hj8s172']</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3912,171 +3912,171 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>['Russian University of Transport (MIIT)']</t>
+          <t>['†Consiglio Nazionale delle Ricerche, Center of Cellular and Molecular Pharmacology, Milan, Italy', '*Institut National de la Santé et de la Recherche Médicale, CJF 95-01, Institut Curie, Section Recherche, Paris, France; and']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>['russian universi transport']</t>
+          <t>['institut curie', 'institut national la sante la recherche medicale']</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>['https://ror.org/05gba0366']</t>
+          <t>['https://ror.org/04t0gwh46', 'https://ror.org/02vjkv261']</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>['Dept. of Electrical and Electronics Engineering, Yasar University, Izmir, Turkey', 'The Graduate School of Natural and Sciences, Dokuz Eylul University, Izmir, Turkey']</t>
+          <t>['Glasgow Caledonian University, UK', 'University of Johannesburg, South Africa', 'Henley Business School, UK', 'Hult International Business School, Greece']</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>['yasar universi', 'dokuz eylul universi']</t>
+          <t>['glasgow caledonian universi', 'universi johannesburg', 'hult international business school']</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>['https://ror.org/00dz1eb96', 'https://ror.org/00dbd8b73']</t>
+          <t>['https://ror.org/03dvm1235', 'https://ror.org/04z6c2n17', 'https://ror.org/01wttbg53']</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>['Section on Biologic Structure, Laboratory of Clinical Investigation, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland 20014']</t>
+          <t>['From the Cardiovascular Medicine Section, Department of Medicine, Boston Medical Center and Myocardial Biology Unit, Boston University School of Medicine, Boston, Mass (D.B.S., T.A.M.), and the Institute of Cell Biology, Swiss Federal Institute of Technology, Zurich, and Swiss Cardiovascular Center Bern, Inselspital, Bern, Switzerland (C.Z., H.M.E., T.M.S.).']</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
+          <t>['boston universi', 'institute cell biology']</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
+          <t>['https://ror.org/04fg7fb49', 'https://ror.org/05qwgg493']</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.71, 1]</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>['AFYON KOCATEPE ÜNİVERSİTESİ, AFYON MESLEK YÜKSEKOKULU']</t>
+          <t>['BURSA TEKNİK ÜNİVERSİTESİ', 'BURSA TECHNICAL UNIVERSITY']</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>['afyon kocatepe universi']</t>
+          <t>['bursa teknik universi', 'bursa technical universi']</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>['https://ror.org/03a1crh56']</t>
+          <t>['https://ror.org/03rdpn141', 'https://ror.org/03rdpn141']</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>['Department of Evolutionary Biology, Evolutionary Biology Centre, Uppsala University, Norbyvägen 18D, SE-752 36 Uppsala, Sweden']</t>
+          <t>['Department of Biochemistry, Kyushu University School of Dentistry, Fukuoka, Japan.']</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>['uppsala universi']</t>
+          <t>['kyushu universi']</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>['https://ror.org/048a87296']</t>
+          <t>['https://ror.org/00p4k0j84']</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>['Fluorochemical Technology Center', 'Chemical Power Source Development Laboratory, 3M Company, St. Paul, Minnesota 55144-1000, United States of America', 'Cooperative Research Center, Tokyo University of Agriculture and Technology, Koganei, Tokyo 184-8588, Japan']</t>
+          <t>['Department of Pathology, Yale University School of Medicine From the , New Haven, Connecticut']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>['tokyo universi agriculture technology']</t>
+          <t>['yale universi']</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>['https://ror.org/00qg0kr10']</t>
+          <t>['https://ror.org/03v76x132']</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.71]</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>['Department of Medicine, University of Utah School of Medicine, Salt Lake City 84132, USA.']</t>
+          <t>['Heriot-Watt University']</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>['universi utah']</t>
+          <t>['heriot watt universi']</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>['https://ror.org/03r0ha626']</t>
+          <t>['https://ror.org/04mghma93']</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>['Department of Chemistry, University of California at Santa Barbara , Boston, Massachusetts 02115 , and the , Santa Barbara, California 93106', 'Center for Blood Research, 800 Huntington Avenue , Boston, Massachusetts 02115 , and the , Santa Barbara, California 93106']</t>
+          <t>['Russian University of Transport (MIIT)']</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>['universi california santa barbara']</t>
+          <t>['russian universi transport']</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>['https://ror.org/02t274463']</t>
+          <t>['https://ror.org/05gba0366']</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4088,61 +4088,61 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>['&amp;#x00C9;cole Polytechnique F&amp;#x00E9;d&amp;#x00E9;rale de Lausanne,Distributed Intelligent Systems and Algorithms Laboratory,Lausanne,Switzerland', 'Institute for Systems and Robotics, Instituto Superior T&amp;#x00E9;cnico,Lisbon,Portugal']</t>
+          <t>['The Graduate School of Natural and Sciences, Dokuz Eylul University, Izmir, Turkey', 'Dept. of Electrical and Electronics Engineering, Yasar University, Izmir, Turkey']</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>['ecole polytechnique federale lausanne', 'institute intelligent systems robotics']</t>
+          <t>['dokuz eylul universi', 'yasar universi']</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>['https://ror.org/02s376052', 'https://ror.org/05neq8668']</t>
+          <t>['https://ror.org/00dbd8b73', 'https://ror.org/00dz1eb96']</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[1, 0.8660254037844388]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>['Contribution from the Departamento de Química Orgánica I, Facultad de Química, Universidad del País Vasco, Apdo. 1072, 20080 San Sebastián, Spain; Departamento de Química Aplicada, Universidad Pública de Navarra, Campus de Arrosadía, 31006 Pamplona, Spain; Unidade de Resonancia Magnetica, R.I.A.I.D.T., CACTUS, Universidad de Santiago de Compostela, 15782 A Coruna, Spain; and Organisch-chemisches Institut der Universität Zürich, Winterthurerstrasse 190, CH-8057, Zürich, Switzerland']</t>
+          <t>['Section on Biologic Structure, Laboratory of Clinical Investigation, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland 20014']</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>['universi del pais vasco', 'universi publica navarra', 'universi santiago compostela']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>['https://ror.org/000xsnr85', 'https://ror.org/02z0cah89', 'https://ror.org/030eybx10']</t>
+          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>['OSMANİYE KORKUT ATA ÜNİVERSİTESİ']</t>
+          <t>['AFYON KOCATEPE ÜNİVERSİTESİ, AFYON MESLEK YÜKSEKOKULU']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>['osmaniye korkut ata universi']</t>
+          <t>['afyon kocatepe universi']</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>['https://ror.org/03h8sa373']</t>
+          <t>['https://ror.org/05es91y67']</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4154,83 +4154,83 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>['School of Public Health, Department of Health Policy Management and Human Nutrition, Moi University, Eldoret, Kenya', 'Department of Population Health, Aga Khan University East Africa, Nairobi', 'School of Public Health, Department of Environmental Health, Moi University, Eldoret, Kenya', 'School of School of Nursing, Department of Midwifery and Gender, Moi University, Eldoret, Kenya', 'School of Education, Department of Education Psychology, Moi University, Eldoret, Kenya']</t>
+          <t>['Department of Evolutionary Biology, Evolutionary Biology Centre, Uppsala University, Norbyvägen 18D, SE-752 36 Uppsala, Sweden']</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>['moi universi', 'aga khan universi', 'moi universi', 'moi universi', 'moi universi']</t>
+          <t>['uppsala universi']</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>['https://ror.org/04p6eac84', 'https://ror.org/02wwrqj12', 'https://ror.org/04p6eac84', 'https://ror.org/04p6eac84', 'https://ror.org/04p6eac84']</t>
+          <t>['https://ror.org/048a87296']</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>[1, 0.77, 1, 1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>['Department of Internal Medicine, Peking Union Medical College Hospital, Chinese Academy of Medical Sciences and Peking Union Medical College , Beijing , China and', 'Department of Gastroenterology, Peking Union Medical College Hospital, Chinese Academy of Medical Sciences and Peking Union Medical College , Beijing , China', 'Department of Gastroenterology, Beijing Hospital, National Center of Gerontology', 'State Key Laboratory of Molecular Oncology, National Cancer Center/National Clinical Research Center for Cancer/Cancer Hospital, Chinese Academy of Medical Sciences and Peking Union Medical College , Beijing , China', 'Institute of Geriatric Medicine, Chinese Academy of Medical Sciences , Beijing , China']</t>
+          <t>['Cooperative Research Center, Tokyo University of Agriculture and Technology, Koganei, Tokyo 184-8588, Japan', 'Chemical Power Source Development Laboratory, 3M Company, St. Paul, Minnesota 55144-1000, United States of America', 'Fluorochemical Technology Center']</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>['chinese academy medical sciences peking union medical college', 'peking union medical college hospital', 'chinese academy medical sciences peking union medical college', 'peking union medical college hospital', 'beijing hospital', 'national center geriatrics gerontology', 'chinese academy medical sciences peking union medical college']</t>
+          <t>['tokyo universi agriculture technology']</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>['https://ror.org/02drdmm93', 'https://ror.org/04jztag35', 'https://ror.org/02drdmm93', 'https://ror.org/04jztag35', 'https://ror.org/02jwb5s28', 'https://ror.org/05h0rw812', 'https://ror.org/02drdmm93']</t>
+          <t>['https://ror.org/00qg0kr10']</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0.8660254037844388, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>['School of Electrical Engineering and Automation, Harbin Institute of Technology, Harbin, China']</t>
+          <t>['Department of Medicine, University of Utah School of Medicine, Salt Lake City 84132, USA.']</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>['harbin institute technology']</t>
+          <t>['universi utah']</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>['https://ror.org/01yqg2h08']</t>
+          <t>['https://ror.org/03r0ha626']</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>['Departments of Surgery and Microbiology and Public Health, Michigan State University From the , East Lansing, Michigan 48824']</t>
+          <t>['Center for Blood Research, 800 Huntington Avenue , Boston, Massachusetts 02115 , and the , Santa Barbara, California 93106', 'Department of Chemistry, University of California at Santa Barbara , Boston, Massachusetts 02115 , and the , Santa Barbara, California 93106']</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>['michigan state universi']</t>
+          <t>['universi california santa barbara']</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>['https://ror.org/05hs6h993']</t>
+          <t>['https://ror.org/02t274463']</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4242,127 +4242,127 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>['Ahsanullah University of Science and Technology,Dept. of Electrical and Electronic Engineering,Dhaka,Bangladesh']</t>
+          <t>['&amp;#x00C9;cole Polytechnique F&amp;#x00E9;d&amp;#x00E9;rale de Lausanne,Distributed Intelligent Systems and Algorithms Laboratory,Lausanne,Switzerland', 'Institute for Systems and Robotics, Instituto Superior T&amp;#x00E9;cnico,Lisbon,Portugal']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>['ahsanullah universi science technology']</t>
+          <t>['ecole polytechnique federale lausanne', 'instituto superior tecnico', 'institute intelligent systems robotics']</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>['https://ror.org/04wfbp123']</t>
+          <t>['https://ror.org/02s376052', 'https://ror.org/03db2by73', 'https://ror.org/05neq8668']</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>['Osaka University']</t>
+          <t>['Contribution from the Departamento de Química Orgánica I, Facultad de Química, Universidad del País Vasco, Apdo. 1072, 20080 San Sebastián, Spain; Departamento de Química Aplicada, Universidad Pública de Navarra, Campus de Arrosadía, 31006 Pamplona, Spain; Unidade de Resonancia Magnetica, R.I.A.I.D.T., CACTUS, Universidad de Santiago de Compostela, 15782 A Coruna, Spain; and Organisch-chemisches Institut der Universität Zürich, Winterthurerstrasse 190, CH-8057, Zürich, Switzerland']</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>['osaka universi']</t>
+          <t>['universi santiago compostela', 'universi del pais vasco', 'universi publica navarra']</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>['https://ror.org/035t8zc32']</t>
+          <t>['https://ror.org/02z0cah89', 'https://ror.org/000xsnr85', 'https://ror.org/030eybx10']</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>['Department of Microbiology, University of Texas Health Science Center, San Antonio 78284.']</t>
+          <t>['OSMANİYE KORKUT ATA ÜNİVERSİTESİ']</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>['texas health science universi']</t>
+          <t>['osmaniye korkut ata universi']</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>['https://ror.org/041621784']</t>
+          <t>['https://ror.org/03h8sa373']</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>[1.0]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>['Rockefeller University , New York, New York 10021']</t>
+          <t>['School of Public Health, Department of Environmental Health, Moi University, Eldoret, Kenya', 'Department of Population Health, Aga Khan University East Africa, Nairobi', 'School of Education, Department of Education Psychology, Moi University, Eldoret, Kenya', 'School of School of Nursing, Department of Midwifery and Gender, Moi University, Eldoret, Kenya', 'School of Public Health, Department of Health Policy Management and Human Nutrition, Moi University, Eldoret, Kenya']</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>['rockefeller universi']</t>
+          <t>['moi universi', 'aga khan universi', 'moi universi', 'moi universi', 'moi universi']</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>['https://ror.org/0420db125']</t>
+          <t>['https://ror.org/04p6eac84', 'https://ror.org/02wwrqj12', 'https://ror.org/04p6eac84', 'https://ror.org/04p6eac84', 'https://ror.org/04p6eac84']</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 0.77, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>['Chuvash State University']</t>
+          <t>['Institute of Geriatric Medicine, Chinese Academy of Medical Sciences , Beijing , China', 'Department of Gastroenterology, Beijing Hospital, National Center of Gerontology', 'State Key Laboratory of Molecular Oncology, National Cancer Center/National Clinical Research Center for Cancer/Cancer Hospital, Chinese Academy of Medical Sciences and Peking Union Medical College , Beijing , China', 'Department of Gastroenterology, Peking Union Medical College Hospital, Chinese Academy of Medical Sciences and Peking Union Medical College , Beijing , China', 'Department of Internal Medicine, Peking Union Medical College Hospital, Chinese Academy of Medical Sciences and Peking Union Medical College , Beijing , China and']</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>['chuvash state universi']</t>
+          <t>['chinese academy medical sciences', 'beijing hospital', 'national center geriatrics gerontology', 'chinese academy medical sciences  peking union medical college', 'peking union medical college hospital', 'chinese academy medical sciences  peking union medical college', 'peking union medical college hospital', 'chinese academy medical sciences  peking union medical college']</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>['https://ror.org/01jmd7f74']</t>
+          <t>['https://ror.org/02drdmm93', 'https://ror.org/05h0rw812', 'https://ror.org/02jwb5s28', 'https://ror.org/02drdmm93', 'https://ror.org/04jztag35', 'https://ror.org/02drdmm93', 'https://ror.org/04jztag35', 'https://ror.org/02drdmm93']</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 0.8660254037844388, 1.0, 1, 1.0, 1, 1.0]</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>['†Cantab Pharmaceuticals Limited, Cambridge, United Kingdom', '*Department of Paediatric Gastroenterology, St. Bartholomew’s and The Royal London School of Medicine and Dentistry, St. Bartholomew’s Hospital, London, United Kingdom; and']</t>
+          <t>['School of Electrical Engineering and Automation, Harbin Institute of Technology, Harbin, China']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>['st bartholomews hospital']</t>
+          <t>['harbin institute technology']</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>['https://ror.org/00nh9x179']</t>
+          <t>['https://ror.org/01yqg2h08']</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4374,17 +4374,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>['Samara State University of Economics (SSEU)']</t>
+          <t>['Departments of Surgery and Microbiology and Public Health, Michigan State University From the , East Lansing, Michigan 48824']</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>['samara state universi economics']</t>
+          <t>['michigan state universi']</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>['https://ror.org/02wsba348']</t>
+          <t>['https://ror.org/05hs6h993']</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4396,105 +4396,105 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>['Universidad Técnica de Machala, Programa de maestría en Medicina Veterinaria, mención Clínica y Cirugía de Pequeñas Especies. Machala, El Oro, Ecuador - RenatoVetDerm. Davie, Florida, Estados Unidos de América', 'Universidad Científica del Sur. Lima, Perú']</t>
+          <t>['Ahsanullah University of Science and Technology,Dept. of Electrical and Electronic Engineering,Dhaka,Bangladesh']</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>['universi tecnica machala', 'universi cientifica del sur']</t>
+          <t>['ahsanullah universi science technology']</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>['https://ror.org/036zk8k10', 'https://ror.org/04xr5we72']</t>
+          <t>['https://ror.org/04wfbp123']</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>['Peng Cheng Laboratory,Shenzhen,China']</t>
+          <t>['Institut für Immunologie der Joh. Gutenberg Universität, Mainz, FRG.']</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>['peng cheng laboratory']</t>
+          <t>['translationale onkologie an der universi der johannes gutenberg universi mainz']</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>['https://ror.org/03qdqbt06']</t>
+          <t>['https://ror.org/04sz26p89']</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.77]</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>['Department of Bacteriology and Immunity, Leland Stanford Jr. University From the']</t>
+          <t>['Osaka University']</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>['stanford universi']</t>
+          <t>['osaka universi']</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>['https://ror.org/00f54p054']</t>
+          <t>['https://ror.org/035t8zc32']</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[0.71]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>['Department of Plant Biology, University of Illinois, Urbana 61801, USA.']</t>
+          <t>['Department of Microbiology, University of Texas Health Science Center, San Antonio 78284.']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>['universi illinois']</t>
+          <t>['texas health science universi']</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>['https://ror.org/05e94g991']</t>
+          <t>['https://ror.org/041621784']</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1.0]</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>['From the Department of Cardiovascular Medicine, School of Medical Sciences (R.N., K.E., Y.M., S.H., M.T., H.T., A.T.), and Department of Biophysics, Faculty of Pharmaceutical Sciences (H.U.), Kyushu University, Fukuoka, Japan.']</t>
+          <t>['Rockefeller University , New York, New York 10021']</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>['kyushu universi']</t>
+          <t>['rockefeller universi']</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>['https://ror.org/00p4k0j84']</t>
+          <t>['https://ror.org/0420db125']</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4506,149 +4506,149 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>['Faculty of Social Sciences, Waseda University, Japan.', 'Graduate School of Social Sciences, Waseda University, Japan']</t>
+          <t>['Chuvash State University']</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>['waseda universi', 'waseda universi']</t>
+          <t>['chuvash state universi']</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>['https://ror.org/00ntfnx83', 'https://ror.org/00ntfnx83']</t>
+          <t>['https://ror.org/01jmd7f74']</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>['J Amorim, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'J Periañez, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'E Crespo Vallejo, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, 28040, Spain', 'A Hermosin , Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'M Gargallo, Endocrinology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'E Santos, Interventional Radiology, Memorial Sloan Kettering Cancer Center, New York, United States', 'A Villalba, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'E Daguer, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'J Flores, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain']</t>
+          <t>['*Department of Paediatric Gastroenterology, St. Bartholomew’s and The Royal London School of Medicine and Dentistry, St. Bartholomew’s Hospital, London, United Kingdom; and', '†Cantab Pharmaceuticals Limited, Cambridge, United Kingdom']</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>['hospital universi fundacion jimenez diaz', 'hospital universi fundacion jimenez diaz', 'hospital universi fundacion jimenez diaz', 'hospital universi fundacion jimenez diaz', 'hospital universi fundacion jimenez diaz', 'memorial sloan kettering cancer center', 'hospital universi fundacion jimenez diaz', 'hospital universi fundacion jimenez diaz', 'hospital universi fundacion jimenez diaz']</t>
+          <t>['st bartholomews hospital']</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>['https://ror.org/049nvyb15', 'https://ror.org/049nvyb15', 'https://ror.org/049nvyb15', 'https://ror.org/049nvyb15', 'https://ror.org/049nvyb15', 'https://ror.org/02yrq0923', 'https://ror.org/049nvyb15', 'https://ror.org/049nvyb15', 'https://ror.org/049nvyb15']</t>
+          <t>['https://ror.org/00nh9x179']</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>['Post-doctoral fellow at the Mandel-Scholion Research Center, Hebrew University of Jerusalem Jerusalem Israel', 'Junior Fellow at the Society of Fellows, Harvard University Cambridge, MA USA']</t>
+          <t>['Samara State University of Economics (SSEU)']</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>['hebrew universi jerusalem', 'harvard universi']</t>
+          <t>['samara state universi economics']</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>['https://ror.org/03qxff017', 'https://ror.org/03vek6s52']</t>
+          <t>['https://ror.org/02wsba348']</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[0.8728715609439696, 0.82]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>['Department of Gynecology, Women’s Hospital, School of Medicine, Zhejiang University, Hangzhou 310006, China']</t>
+          <t>['Universidad Técnica de Machala, Programa de maestría en Medicina Veterinaria, mención Clínica y Cirugía de Pequeñas Especies. Machala, El Oro, Ecuador - RenatoVetDerm. Davie, Florida, Estados Unidos de América', 'Universidad Científica del Sur. Lima, Perú']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>['zhejiang universi']</t>
+          <t>['universi tecnica machala', 'universi cientifica del sur']</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>['https://ror.org/00a2xv884']</t>
+          <t>['https://ror.org/036zk8k10', 'https://ror.org/04xr5we72']</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>['Director, Centre for Local and Regional Governance (CLRG) , University College Cork , Ireland', 'Lecturer, Department of Government and Politics , University College Cork , Ireland', 'PhD candidate, Department of Government and Politics , University College Cork , Ireland', 'Former Senior Executive Officer, Cork City Council , Ireland']</t>
+          <t>['Peng Cheng Laboratory,Shenzhen,China']</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>['universi college cork', 'universi college cork', 'universi college cork']</t>
+          <t>['peng cheng laboratory']</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>['https://ror.org/03265fv13', 'https://ror.org/03265fv13', 'https://ror.org/03265fv13']</t>
+          <t>['https://ror.org/03qdqbt06']</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>['School of Sport, Exercise and Health Sciences, Loughborough University, Loughborough, UK']</t>
+          <t>['Department of Bacteriology and Immunity, Leland Stanford Jr. University From the']</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>['loughborough universi']</t>
+          <t>['stanford universi']</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>['https://ror.org/04vg4w365']</t>
+          <t>['https://ror.org/00f54p054']</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.71]</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>['Laboratory of Plant Molecular Biology, Rockefeller University, New York, New York 10021-6399.']</t>
+          <t>['Department of Plant Biology, University of Illinois, Urbana 61801, USA.']</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>['rockefeller universi']</t>
+          <t>['universi illinois']</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>['https://ror.org/0420db125']</t>
+          <t>['https://ror.org/05e94g991']</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4660,171 +4660,171 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>['National Heart Centre, Singapore', 'National University Hospital, Singapore']</t>
+          <t>['From the Department of Cardiovascular Medicine, School of Medical Sciences (R.N., K.E., Y.M., S.H., M.T., H.T., A.T.), and Department of Biophysics, Faculty of Pharmaceutical Sciences (H.U.), Kyushu University, Fukuoka, Japan.']</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>['national heart centre singapore', 'national universi hospital']</t>
+          <t>['kyushu universi']</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>['https://ror.org/04f8k9513', 'https://ror.org/04fp9fm22']</t>
+          <t>['https://ror.org/00p4k0j84']</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[0.8660254037844388, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>['Department of Biology, Osborn Memorial Laboratories, Yale University, New Haven, Connecticut 06511.']</t>
+          <t>['Graduate School of Social Sciences, Waseda University, Japan', 'Faculty of Social Sciences, Waseda University, Japan.']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>['yale universi']</t>
+          <t>['waseda universi', 'waseda universi']</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>['https://ror.org/03v76x132']</t>
+          <t>['https://ror.org/00ntfnx83', 'https://ror.org/00ntfnx83']</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>['Higher Colleges of Technology,Faculty of Engineering Technology and Science,Dubai,United Arab Emirates', 'Lebanese University,Faculty of Engineering,Tripoli,Lebanon', 'Electricity of LEBANON, Deir Ammar Power Plant,Tripoli,Lebanon']</t>
+          <t>['A Hermosin , Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'A Villalba, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'E Crespo Vallejo, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, 28040, Spain', 'J Amorim, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'J Flores, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'E Santos, Interventional Radiology, Memorial Sloan Kettering Cancer Center, New York, United States', 'M Gargallo, Endocrinology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'J Periañez, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain', 'E Daguer, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain']</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>['higher colleges technology', 'lebanese universi']</t>
+          <t>['hospital universi fundacion jimenez diaz', 'hospital universi fundacion jimenez diaz', 'hospital universi fundacion jimenez diaz', 'hospital universi fundacion jimenez diaz', 'hospital universi fundacion jimenez diaz', 'memorial sloan kettering cancer center', 'hospital universi fundacion jimenez diaz', 'hospital universi fundacion jimenez diaz', 'hospital universi fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>['https://ror.org/00qmy9z88', 'https://ror.org/05x6qnc69']</t>
+          <t>['https://ror.org/049nvyb15', 'https://ror.org/049nvyb15', 'https://ror.org/049nvyb15', 'https://ror.org/049nvyb15', 'https://ror.org/049nvyb15', 'https://ror.org/02yrq0923', 'https://ror.org/049nvyb15', 'https://ror.org/049nvyb15', 'https://ror.org/049nvyb15']</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>['Associate Professor, Dept. of Energy Systems Engineering, Technology Faculty, Karabuk Univ., Iron and Steel Campus, Karabuk 78050, Turkey (corresponding author). ORCID: .', 'Dept. of Energy Systems Engineering, Technology Faculty, Karabuk Univ., Iron and Steel Campus, Karabuk 78050, Turkey. ORCID: .']</t>
+          <t>['Junior Fellow at the Society of Fellows, Harvard University Cambridge, MA USA', 'Post-doctoral fellow at the Mandel-Scholion Research Center, Hebrew University of Jerusalem Jerusalem Israel']</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>['karabuk universi', 'karabuk universi']</t>
+          <t>['universi cambridge', 'hebrew universi jerusalem']</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>['https://ror.org/04wy7gp54', 'https://ror.org/04wy7gp54']</t>
+          <t>['https://ror.org/013meh722', 'https://ror.org/03qxff017']</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[0.7071067811865475, 0.7071067811865475]</t>
+          <t>[0.82, 0.8728715609439696]</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>['Department of Biology and the Center for Cancer Research, Massachusetts Institute of Technology From the , Cambridge, Massachusetts 02139']</t>
+          <t>['Department of Gynecology, Women’s Hospital, School of Medicine, Zhejiang University, Hangzhou 310006, China']</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>['massachusetts institute technology']</t>
+          <t>['womens hospital', 'zhejiang universi']</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>['https://ror.org/042nb2s44']</t>
+          <t>['https://ror.org/00raa0r66', 'https://ror.org/00a2xv884']</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>['Artificial Intelligence School, Sungkyunkwan University,Suwon,South Korea']</t>
+          <t>['Lecturer, Department of Government and Politics , University College Cork , Ireland', 'PhD candidate, Department of Government and Politics , University College Cork , Ireland', 'Former Senior Executive Officer, Cork City Council , Ireland', 'Director, Centre for Local and Regional Governance (CLRG) , University College Cork , Ireland']</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>['sungkyunkwan universi']</t>
+          <t>['universi college cork', 'universi college cork', 'universi college cork']</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>['https://ror.org/04q78tk20']</t>
+          <t>['https://ror.org/03265fv13', 'https://ror.org/03265fv13', 'https://ror.org/03265fv13']</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>['Tokyo Institute of Technology', 'Tohoku University']</t>
+          <t>['School of Sport, Exercise and Health Sciences, Loughborough University, Loughborough, UK']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>['tokyo institute technology', 'tohoku universi']</t>
+          <t>['loughborough universi']</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>['https://ror.org/0112mx960', 'https://ror.org/01dq60k83']</t>
+          <t>['https://ror.org/04vg4w365']</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>['Department of Mathematics, Shaoxing University, Shaoxing 312000, P. R. China']</t>
+          <t>['Laboratory of Plant Molecular Biology, Rockefeller University, New York, New York 10021-6399.']</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>['shaoxing universi']</t>
+          <t>['rockefeller universi']</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>['https://ror.org/0435tej63']</t>
+          <t>['https://ror.org/0420db125']</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4836,105 +4836,105 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>['Department of Microbiology, Washington University School of Medicine From the , St. Louis, Missouri 63110']</t>
+          <t>['National University Hospital, Singapore', 'National Heart Centre, Singapore']</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>['universi washington']</t>
+          <t>['national universi hospital', 'national heart centre singapore']</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>['https://ror.org/00cvxb145']</t>
+          <t>['https://ror.org/04fp9fm22', 'https://ror.org/04f8k9513']</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[1, 0.8660254037844388]</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>['Department of Radiology, Loyola University Medical Center, Maywood, Illinois, United States', 'Department of Medical Oncology, Loyola University Medical Center, Maywood, Illinois, United States']</t>
+          <t>['Department of Biology, Osborn Memorial Laboratories, Yale University, New Haven, Connecticut 06511.']</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>['loyola universi medical center', 'loyola universi medical center']</t>
+          <t>['yale universi']</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>['https://ror.org/05xcyt367', 'https://ror.org/05xcyt367']</t>
+          <t>['https://ror.org/03v76x132']</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>['Departments of Pathology, Dermatology, and Medicine, Tufts University School of Medicine From the , Boston, Massachusetts 02111']</t>
+          <t>['Higher Colleges of Technology,Faculty of Engineering Technology and Science,Dubai,United Arab Emirates', 'Electricity of LEBANON, Deir Ammar Power Plant,Tripoli,Lebanon', 'Lebanese University,Faculty of Engineering,Tripoli,Lebanon']</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>['tufts universi']</t>
+          <t>['higher colleges technology', 'lebanese universi']</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>['https://ror.org/05wvpxv85']</t>
+          <t>['https://ror.org/00qmy9z88', 'https://ror.org/05x6qnc69']</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>['Kahramanmaraş Sütçü İmam Üniversitesi İlahiyat Fakültesi', 'KAHRAMANMARAŞ SÜTÇÜ İMAM ÜNİVERSİTESİ']</t>
+          <t>['Associate Professor, Dept. of Energy Systems Engineering, Technology Faculty, Karabuk Univ., Iron and Steel Campus, Karabuk 78050, Turkey (corresponding author). ORCID: .', 'Dept. of Energy Systems Engineering, Technology Faculty, Karabuk Univ., Iron and Steel Campus, Karabuk 78050, Turkey. ORCID: .']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universi', 'kahramanmaras sutcu imam universi']</t>
+          <t>['karabuk universi', 'karabuk universi']</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>['https://ror.org/03gn5cg19', 'https://ror.org/03gn5cg19']</t>
+          <t>['https://ror.org/04wy7gp54', 'https://ror.org/04wy7gp54']</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[0.8164965809277261, 1]</t>
+          <t>[0.7071067811865475, 0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>['School of Microelectronics, Northwestern Polytechnical University,Xi&amp;#x0027;an,China']</t>
+          <t>['Department of Biology and the Center for Cancer Research, Massachusetts Institute of Technology From the , Cambridge, Massachusetts 02139']</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>['northwestern polytechnical universi']</t>
+          <t>['massachusetts institute technology']</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>['https://ror.org/01y0j0j86']</t>
+          <t>['https://ror.org/042nb2s44']</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4946,17 +4946,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>['Duke Clinical Research Institute, Duke University Medical Center, Durham, NC']</t>
+          <t>['Artificial Intelligence School, Sungkyunkwan University,Suwon,South Korea']</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>['duke universi medical center']</t>
+          <t>['sungkyunkwan universi']</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>['https://ror.org/03njmea73']</t>
+          <t>['https://ror.org/04q78tk20']</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4968,149 +4968,149 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>['Department of Pediatrics, University of Tennessee, Memphis 38163.']</t>
+          <t>['Tokyo Institute of Technology', 'Tohoku University']</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>['universi tennessee']</t>
+          <t>['tokyo institute technology', 'tohoku universi']</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>['https://ror.org/020f3ap87']</t>
+          <t>['https://ror.org/0112mx960', 'https://ror.org/01dq60k83']</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>['Department of Pathology and Laboratory Medicine, University of Pennsylvania School of Medicine, Philadelphia 19104-6082.']</t>
+          <t>['Department of Mathematics, Shaoxing University, Shaoxing 312000, P. R. China']</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>['universi pennsylvania']</t>
+          <t>['shaoxing universi']</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>['https://ror.org/00b30xv10']</t>
+          <t>['https://ror.org/0435tej63']</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[0.7071067811865475]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>['Ehime University']</t>
+          <t>['Department of Microbiology, Washington University School of Medicine From the , St. Louis, Missouri 63110']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>['ehime universi']</t>
+          <t>['universi washington']</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>['https://ror.org/017hkng22']</t>
+          <t>['https://ror.org/00cvxb145']</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>['Qassim University', 'Aljarirr Alshamali primary health care center', 'Qusaiba Hospital']</t>
+          <t>['Department of Medical Oncology, Loyola University Medical Center, Maywood, Illinois, United States', 'Department of Radiology, Loyola University Medical Center, Maywood, Illinois, United States']</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>['qassim universi']</t>
+          <t>['loyola universi medical center', 'loyola universi medical center']</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>['https://ror.org/01wsfe280']</t>
+          <t>['https://ror.org/05xcyt367', 'https://ror.org/05xcyt367']</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>['Department of Physics, Pukyong National University', 'Department of Electrical Engineering, Tongmyong University']</t>
+          <t>['Departments of Pathology, Dermatology, and Medicine, Tufts University School of Medicine From the , Boston, Massachusetts 02111']</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>['pukyong national universi', 'tongmyong universi']</t>
+          <t>['tufts universi']</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>['https://ror.org/0433kqc49', 'https://ror.org/01asa8g02']</t>
+          <t>['https://ror.org/05wvpxv85']</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[1, 1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>['Eastern minnesota university']</t>
+          <t>['Kahramanmaraş Sütçü İmam Üniversitesi İlahiyat Fakültesi', 'KAHRAMANMARAŞ SÜTÇÜ İMAM ÜNİVERSİTESİ']</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>['eastern universi']</t>
+          <t>['kahramanmaras sutcu imam universi', 'kahramanmaras sutcu imam universi']</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>['https://ror.org/05e2ncr14']</t>
+          <t>['https://ror.org/03gn5cg19', 'https://ror.org/03gn5cg19']</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[0.82]</t>
+          <t>[0.8164965809277261, 1]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>['Amur State University']</t>
+          <t>['School of Microelectronics, Northwestern Polytechnical University,Xi&amp;#x0027;an,China']</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>['amur state universi']</t>
+          <t>['northwestern polytechnical universi']</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>['https://ror.org/03fws8b96']</t>
+          <t>['https://ror.org/01y0j0j86']</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5122,108 +5122,284 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>['National Engineering Laboratory for Tree Breeding, College of Biological Sciences and Technology, Beijing Forestry University , No. 35, Qinghua East Road, Beijing 100083, P. R. China', 'Department of Forest and Conservation Sciences, Faculty of Forestry, Forest Sciences Centre, University of British Columbia , Vancouver, BC V6T 1Z4 , Canada', 'Key Laboratory of Genetics and Breeding in Forest Trees and Ornamental Plants, Ministry of Education, College of Biological Sciences and Technology, Beijing Forestry University , No. 35, Qinghua East Road, Beijing 100083, P. R. China', 'CSIRO Agriculture and Food , Black Mountain, Canberra ACT 2601 , Australia']</t>
+          <t>['Duke Clinical Research Institute, Duke University Medical Center, Durham, NC']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>['beijing forestry universi', 'universi british columbia', 'beijing forestry universi']</t>
+          <t>['duke universi medical center']</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>['https://ror.org/04xv2pc41', 'https://ror.org/03rmrcq20', 'https://ror.org/04xv2pc41']</t>
+          <t>['https://ror.org/04bct7p84']</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>['Veer Narmad South Gujarat University, India', 'Narmada College of Management, India']</t>
+          <t>['Department of Pediatrics, University of Tennessee, Memphis 38163.']</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>['veer narmad south gujarat universi']</t>
+          <t>['universi tennessee']</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>['https://ror.org/04frnz493']</t>
+          <t>['https://ror.org/020f3ap87']</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[0.89]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>['The Institute for Animal Health, Compton, Near Newbury, United Kingdom. Chris.Howard@BBSRC.AC.UK']</t>
+          <t>['Department of Pathology and Laboratory Medicine, University of Pennsylvania School of Medicine, Philadelphia 19104-6082.']</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>['institute animal health']</t>
+          <t>['universi pennsylvania']</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>['https://ror.org/04xv01a59']</t>
+          <t>['https://ror.org/00b30xv10']</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[0.7071067811865475]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>['*Division of Molecular Immunology, La Jolla Institute for Allergy and Immunology, San Diego, CA 92121;', '†Department of Immunology and Microbiology, Rush Medical College, Chicago, IL 60612;', '§Institute of Biochemistry, University of Lausanne, Epalinges, Switzerland', '‡Department of Medicine, University of California at San Diego, La Jolla CA 92093; and']</t>
+          <t>['Ehime University']</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>['la jolla institute allergy immunology', 'universi lausanne', 'universi california san diego']</t>
+          <t>['ehime universi']</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>['https://ror.org/05vkpd318', 'https://ror.org/019whta54', 'https://ror.org/0168r3w48']</t>
+          <t>['https://ror.org/017hkng22']</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>[1, 1, 1]</t>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
+          <t>['Qusaiba Hospital', 'Qassim University', 'Aljarirr Alshamali primary health care center']</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>['qassim universi']</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>['https://ror.org/01wsfe280']</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>['Department of Physics, Pukyong National University', 'Department of Electrical Engineering, Tongmyong University']</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>['pukyong national universi', 'tongmyong universi']</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>['https://ror.org/0433kqc49', 'https://ror.org/01asa8g02']</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>['Eastern minnesota university']</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>['eastern universi']</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>['https://ror.org/05e2ncr14']</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>[0.82]</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>['Amur State University']</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>['amur state universi']</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>['https://ror.org/03fws8b96']</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>['CSIRO Agriculture and Food , Black Mountain, Canberra ACT 2601 , Australia', 'National Engineering Laboratory for Tree Breeding, College of Biological Sciences and Technology, Beijing Forestry University , No. 35, Qinghua East Road, Beijing 100083, P. R. China', 'Department of Forest and Conservation Sciences, Faculty of Forestry, Forest Sciences Centre, University of British Columbia , Vancouver, BC V6T 1Z4 , Canada', 'Key Laboratory of Genetics and Breeding in Forest Trees and Ornamental Plants, Ministry of Education, College of Biological Sciences and Technology, Beijing Forestry University , No. 35, Qinghua East Road, Beijing 100083, P. R. China']</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>['beijing forestry universi', 'universi british columbia', 'beijing forestry universi']</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>['https://ror.org/04xv2pc41', 'https://ror.org/03rmrcq20', 'https://ror.org/04xv2pc41']</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>[1, 1, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>['Veer Narmad South Gujarat University, India', 'Narmada College of Management, India']</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>['veer narmad south gujarat universi']</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>['https://ror.org/04frnz493']</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>[0.89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>['The Institute for Animal Health, Compton, Near Newbury, United Kingdom. Chris.Howard@BBSRC.AC.UK']</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>['institute animal health']</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>['https://ror.org/04xv01a59']</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>['†Department of Immunology and Microbiology, Rush Medical College, Chicago, IL 60612;', '*Division of Molecular Immunology, La Jolla Institute for Allergy and Immunology, San Diego, CA 92121;', '‡Department of Medicine, University of California at San Diego, La Jolla CA 92093; and', '§Institute of Biochemistry, University of Lausanne, Epalinges, Switzerland']</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>['la jolla institute allergy  immunology', 'universi california san diego', 'universi lausanne']</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>['https://ror.org/05vkpd318', 'https://ror.org/0168r3w48', 'https://ror.org/019whta54']</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>[0.9999999999999999, 1, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
           <t>['Department of Molecular Pharmacology and Biological Chemistry, Northwestern University, 303 East Chicago Avenue, Chicago, Illinois 60611']</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>['northwestern universi']</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>['https://ror.org/00m6w7z96']</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>['https://ror.org/000e0be47']</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
         <is>
           <t>[1]</t>
         </is>
